--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8373824-B322-4CC9-9AA1-F2808F988463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="64">
   <si>
     <t>nombre</t>
   </si>
@@ -203,13 +209,15 @@
   </si>
   <si>
     <t>Fam Astete Cahuapaza, Merly</t>
+  </si>
+  <si>
+    <t>sin dictar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -253,34 +261,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}" name="Tabla1" displayName="Tabla1" ref="A1:D225" totalsRowShown="0">
+  <autoFilter ref="A1:D225" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D2690417-E684-4DA2-81FB-B575401FD03E}" name="nombre" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6F078736-2BFB-454A-9668-9AB8DB02367E}" name="ciclo" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0D06AAE8-6967-4661-B486-AB3437B75794}" name="semana" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{95A07596-795B-4C4A-BCA1-5D84979B43DE}" name="estado" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -288,10 +355,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -329,71 +396,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,7 +488,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -444,11 +511,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -457,13 +524,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,7 +540,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -482,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -491,7 +558,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -499,10 +566,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -567,23 +634,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170:D225"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,2359 +666,3146 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="3">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
         <v>2</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3">
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
         <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="3">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
         <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
         <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
         <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="3">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3">
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
         <v>2</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="3">
-        <v>1</v>
-      </c>
-      <c r="C81" s="3">
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3">
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
         <v>2</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
         <v>2</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3">
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3">
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
         <v>2</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
         <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
         <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3">
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3">
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
         <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="3">
-        <v>1</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
         <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="3">
-        <v>1</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B100" s="3">
-        <v>1</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="3">
-        <v>1</v>
-      </c>
-      <c r="C101" s="3">
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="3">
-        <v>1</v>
-      </c>
-      <c r="C102" s="3">
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="3">
-        <v>1</v>
-      </c>
-      <c r="C103" s="3">
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="3">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" s="3">
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
         <v>2</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-      <c r="C106" s="3">
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
         <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="3">
-        <v>1</v>
-      </c>
-      <c r="C107" s="3">
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B108" s="3">
-        <v>1</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B109" s="3">
-        <v>1</v>
-      </c>
-      <c r="C109" s="3">
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
         <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B110" s="3">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
         <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B111" s="3">
-        <v>1</v>
-      </c>
-      <c r="C111" s="3">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
         <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B112" s="3">
-        <v>1</v>
-      </c>
-      <c r="C112" s="3">
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
         <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B113" s="3">
-        <v>1</v>
-      </c>
-      <c r="C113" s="3">
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
         <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="3">
-        <v>1</v>
-      </c>
-      <c r="C114" s="3">
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="3">
-        <v>1</v>
-      </c>
-      <c r="C115" s="3">
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="3">
-        <v>1</v>
-      </c>
-      <c r="C116" s="3">
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="3">
-        <v>1</v>
-      </c>
-      <c r="C117" s="3">
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="3">
-        <v>1</v>
-      </c>
-      <c r="C118" s="3">
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="3">
-        <v>1</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="3">
-        <v>1</v>
-      </c>
-      <c r="C120" s="3">
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="3">
-        <v>1</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B122" s="3">
-        <v>1</v>
-      </c>
-      <c r="C122" s="3">
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="3">
-        <v>1</v>
-      </c>
-      <c r="C123" s="3">
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="3">
-        <v>1</v>
-      </c>
-      <c r="C124" s="3">
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="3">
-        <v>1</v>
-      </c>
-      <c r="C125" s="3">
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B126" s="3">
-        <v>1</v>
-      </c>
-      <c r="C126" s="3">
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B127" s="3">
-        <v>1</v>
-      </c>
-      <c r="C127" s="3">
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2">
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="3">
-        <v>1</v>
-      </c>
-      <c r="C128" s="3">
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="3">
-        <v>1</v>
-      </c>
-      <c r="C129" s="3">
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B130" s="3">
-        <v>1</v>
-      </c>
-      <c r="C130" s="3">
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B131" s="3">
-        <v>1</v>
-      </c>
-      <c r="C131" s="3">
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B132" s="3">
-        <v>1</v>
-      </c>
-      <c r="C132" s="3">
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B133" s="3">
-        <v>1</v>
-      </c>
-      <c r="C133" s="3">
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B134" s="3">
-        <v>1</v>
-      </c>
-      <c r="C134" s="3">
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B135" s="3">
-        <v>1</v>
-      </c>
-      <c r="C135" s="3">
+      <c r="B135" s="2">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B136" s="3">
-        <v>1</v>
-      </c>
-      <c r="C136" s="3">
+      <c r="B136" s="2">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B137" s="3">
-        <v>1</v>
-      </c>
-      <c r="C137" s="3">
+      <c r="B137" s="2">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" s="3">
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B139" s="3">
-        <v>1</v>
-      </c>
-      <c r="C139" s="3">
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B140" s="3">
-        <v>1</v>
-      </c>
-      <c r="C140" s="3">
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B141" s="3">
-        <v>1</v>
-      </c>
-      <c r="C141" s="3">
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B142" s="3">
-        <v>1</v>
-      </c>
-      <c r="C142" s="3">
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2">
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B143" s="3">
-        <v>1</v>
-      </c>
-      <c r="C143" s="3">
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B144" s="3">
-        <v>1</v>
-      </c>
-      <c r="C144" s="3">
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B145" s="3">
-        <v>1</v>
-      </c>
-      <c r="C145" s="3">
+      <c r="B145" s="2">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B146" s="3">
-        <v>1</v>
-      </c>
-      <c r="C146" s="3">
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B147" s="3">
-        <v>1</v>
-      </c>
-      <c r="C147" s="3">
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="3">
-        <v>1</v>
-      </c>
-      <c r="C148" s="3">
+      <c r="B148" s="2">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B149" s="3">
-        <v>1</v>
-      </c>
-      <c r="C149" s="3">
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B150" s="3">
-        <v>1</v>
-      </c>
-      <c r="C150" s="3">
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B151" s="3">
-        <v>1</v>
-      </c>
-      <c r="C151" s="3">
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B152" s="3">
-        <v>1</v>
-      </c>
-      <c r="C152" s="3">
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B153" s="3">
-        <v>1</v>
-      </c>
-      <c r="C153" s="3">
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B154" s="3">
-        <v>1</v>
-      </c>
-      <c r="C154" s="3">
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B155" s="3">
-        <v>1</v>
-      </c>
-      <c r="C155" s="3">
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B156" s="3">
-        <v>1</v>
-      </c>
-      <c r="C156" s="3">
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2">
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="3">
-        <v>1</v>
-      </c>
-      <c r="C157" s="3">
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2">
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B158" s="3">
-        <v>1</v>
-      </c>
-      <c r="C158" s="3">
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B159" s="3">
-        <v>1</v>
-      </c>
-      <c r="C159" s="3">
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B160" s="3">
-        <v>1</v>
-      </c>
-      <c r="C160" s="3">
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B161" s="3">
-        <v>1</v>
-      </c>
-      <c r="C161" s="3">
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B162" s="3">
-        <v>1</v>
-      </c>
-      <c r="C162" s="3">
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="3">
-        <v>1</v>
-      </c>
-      <c r="C163" s="3">
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B164" s="3">
-        <v>1</v>
-      </c>
-      <c r="C164" s="3">
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B165" s="3">
-        <v>1</v>
-      </c>
-      <c r="C165" s="3">
+      <c r="B165" s="2">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B166" s="3">
-        <v>1</v>
-      </c>
-      <c r="C166" s="3">
+      <c r="B166" s="2">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B167" s="3">
-        <v>1</v>
-      </c>
-      <c r="C167" s="3">
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B168" s="3">
-        <v>1</v>
-      </c>
-      <c r="C168" s="3">
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="3">
-        <v>1</v>
-      </c>
-      <c r="C169" s="3">
+      <c r="B169" s="2">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="5">
+        <v>1</v>
+      </c>
+      <c r="C170" s="5">
+        <v>4</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171" s="5">
+        <v>4</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="5">
+        <v>1</v>
+      </c>
+      <c r="C172" s="5">
+        <v>4</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="5">
+        <v>1</v>
+      </c>
+      <c r="C173" s="5">
+        <v>4</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="5">
+        <v>1</v>
+      </c>
+      <c r="C174" s="5">
+        <v>4</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="5">
+        <v>1</v>
+      </c>
+      <c r="C175" s="5">
+        <v>4</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="5">
+        <v>1</v>
+      </c>
+      <c r="C176" s="5">
+        <v>4</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1</v>
+      </c>
+      <c r="C177" s="5">
+        <v>4</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
+      <c r="C178" s="5">
+        <v>4</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="5">
+        <v>1</v>
+      </c>
+      <c r="C179" s="5">
+        <v>4</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1</v>
+      </c>
+      <c r="C180" s="5">
+        <v>4</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="5">
+        <v>1</v>
+      </c>
+      <c r="C181" s="5">
+        <v>4</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="5">
+        <v>1</v>
+      </c>
+      <c r="C182" s="5">
+        <v>4</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="5">
+        <v>1</v>
+      </c>
+      <c r="C183" s="5">
+        <v>4</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1</v>
+      </c>
+      <c r="C184" s="5">
+        <v>4</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="5">
+        <v>1</v>
+      </c>
+      <c r="C185" s="5">
+        <v>4</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="5">
+        <v>1</v>
+      </c>
+      <c r="C186" s="5">
+        <v>4</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
+      <c r="C187" s="5">
+        <v>4</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" s="5">
+        <v>1</v>
+      </c>
+      <c r="C188" s="5">
+        <v>4</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1</v>
+      </c>
+      <c r="C189" s="5">
+        <v>4</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="5">
+        <v>1</v>
+      </c>
+      <c r="C190" s="5">
+        <v>4</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B191" s="5">
+        <v>1</v>
+      </c>
+      <c r="C191" s="5">
+        <v>4</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1</v>
+      </c>
+      <c r="C192" s="5">
+        <v>4</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" s="5">
+        <v>1</v>
+      </c>
+      <c r="C193" s="5">
+        <v>4</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" s="5">
+        <v>1</v>
+      </c>
+      <c r="C194" s="5">
+        <v>4</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" s="5">
+        <v>1</v>
+      </c>
+      <c r="C195" s="5">
+        <v>4</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" s="5">
+        <v>1</v>
+      </c>
+      <c r="C196" s="5">
+        <v>4</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" s="5">
+        <v>1</v>
+      </c>
+      <c r="C197" s="5">
+        <v>4</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1</v>
+      </c>
+      <c r="C198" s="5">
+        <v>4</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B199" s="5">
+        <v>1</v>
+      </c>
+      <c r="C199" s="5">
+        <v>4</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" s="5">
+        <v>1</v>
+      </c>
+      <c r="C200" s="5">
+        <v>4</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1</v>
+      </c>
+      <c r="C201" s="5">
+        <v>4</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1</v>
+      </c>
+      <c r="C202" s="5">
+        <v>4</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1</v>
+      </c>
+      <c r="C203" s="5">
+        <v>4</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B204" s="5">
+        <v>1</v>
+      </c>
+      <c r="C204" s="5">
+        <v>4</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1</v>
+      </c>
+      <c r="C205" s="5">
+        <v>4</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1</v>
+      </c>
+      <c r="C206" s="5">
+        <v>4</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1</v>
+      </c>
+      <c r="C207" s="5">
+        <v>4</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1</v>
+      </c>
+      <c r="C208" s="5">
+        <v>4</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209" s="5">
+        <v>1</v>
+      </c>
+      <c r="C209" s="5">
+        <v>4</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1</v>
+      </c>
+      <c r="C210" s="5">
+        <v>4</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1</v>
+      </c>
+      <c r="C211" s="5">
+        <v>4</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B212" s="5">
+        <v>1</v>
+      </c>
+      <c r="C212" s="5">
+        <v>4</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1</v>
+      </c>
+      <c r="C213" s="5">
+        <v>4</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B214" s="5">
+        <v>1</v>
+      </c>
+      <c r="C214" s="5">
+        <v>4</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B215" s="5">
+        <v>1</v>
+      </c>
+      <c r="C215" s="5">
+        <v>4</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
+      </c>
+      <c r="C216" s="5">
+        <v>4</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1</v>
+      </c>
+      <c r="C217" s="5">
+        <v>4</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1</v>
+      </c>
+      <c r="C218" s="5">
+        <v>4</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1</v>
+      </c>
+      <c r="C219" s="5">
+        <v>4</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1</v>
+      </c>
+      <c r="C220" s="5">
+        <v>4</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B221" s="5">
+        <v>1</v>
+      </c>
+      <c r="C221" s="5">
+        <v>4</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B222" s="5">
+        <v>1</v>
+      </c>
+      <c r="C222" s="5">
+        <v>4</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B223" s="5">
+        <v>1</v>
+      </c>
+      <c r="C223" s="5">
+        <v>4</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B224" s="5">
+        <v>1</v>
+      </c>
+      <c r="C224" s="5">
+        <v>4</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1</v>
+      </c>
+      <c r="C225" s="5">
+        <v>4</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8373824-B322-4CC9-9AA1-F2808F988463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B785EEC5-4F25-4E74-824F-5D4B12C6F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="64">
   <si>
     <t>nombre</t>
   </si>
@@ -338,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}" name="Tabla1" displayName="Tabla1" ref="A1:D225" totalsRowShown="0">
-  <autoFilter ref="A1:D225" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}" name="Tabla1" displayName="Tabla1" ref="A1:D281" totalsRowShown="0">
+  <autoFilter ref="A1:D281" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D2690417-E684-4DA2-81FB-B575401FD03E}" name="nombre" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{6F078736-2BFB-454A-9668-9AB8DB02367E}" name="ciclo" dataDxfId="2"/>
@@ -638,10 +638,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170:D225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3029,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3043,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3057,7 +3057,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3071,7 +3071,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3099,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3127,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3141,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3183,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3211,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3225,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3267,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3309,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3323,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3337,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3365,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3379,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3407,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3421,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3449,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -3463,7 +3463,7 @@
         <v>4</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3477,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -3491,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3505,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -3519,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -3533,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -3547,7 +3547,7 @@
         <v>4</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -3561,7 +3561,7 @@
         <v>4</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -3575,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3589,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -3603,7 +3603,7 @@
         <v>4</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -3617,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -3631,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -3645,7 +3645,7 @@
         <v>4</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -3659,7 +3659,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -3729,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -3757,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -3771,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -3785,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -3799,6 +3799,790 @@
         <v>4</v>
       </c>
       <c r="D225" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1</v>
+      </c>
+      <c r="C226" s="5">
+        <v>5</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="5">
+        <v>1</v>
+      </c>
+      <c r="C227" s="5">
+        <v>5</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="5">
+        <v>1</v>
+      </c>
+      <c r="C228" s="5">
+        <v>5</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="5">
+        <v>1</v>
+      </c>
+      <c r="C229" s="5">
+        <v>5</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1</v>
+      </c>
+      <c r="C230" s="5">
+        <v>5</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="5">
+        <v>1</v>
+      </c>
+      <c r="C231" s="5">
+        <v>5</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" s="5">
+        <v>1</v>
+      </c>
+      <c r="C232" s="5">
+        <v>5</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" s="5">
+        <v>1</v>
+      </c>
+      <c r="C233" s="5">
+        <v>5</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="5">
+        <v>1</v>
+      </c>
+      <c r="C234" s="5">
+        <v>5</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" s="5">
+        <v>1</v>
+      </c>
+      <c r="C235" s="5">
+        <v>5</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="5">
+        <v>1</v>
+      </c>
+      <c r="C236" s="5">
+        <v>5</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237" s="5">
+        <v>1</v>
+      </c>
+      <c r="C237" s="5">
+        <v>5</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="5">
+        <v>1</v>
+      </c>
+      <c r="C238" s="5">
+        <v>5</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="5">
+        <v>1</v>
+      </c>
+      <c r="C239" s="5">
+        <v>5</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" s="5">
+        <v>1</v>
+      </c>
+      <c r="C240" s="5">
+        <v>5</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="5">
+        <v>1</v>
+      </c>
+      <c r="C241" s="5">
+        <v>5</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="5">
+        <v>1</v>
+      </c>
+      <c r="C242" s="5">
+        <v>5</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B243" s="5">
+        <v>1</v>
+      </c>
+      <c r="C243" s="5">
+        <v>5</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B244" s="5">
+        <v>1</v>
+      </c>
+      <c r="C244" s="5">
+        <v>5</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B245" s="5">
+        <v>1</v>
+      </c>
+      <c r="C245" s="5">
+        <v>5</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="5">
+        <v>1</v>
+      </c>
+      <c r="C246" s="5">
+        <v>5</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B247" s="5">
+        <v>1</v>
+      </c>
+      <c r="C247" s="5">
+        <v>5</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248" s="5">
+        <v>1</v>
+      </c>
+      <c r="C248" s="5">
+        <v>5</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B249" s="5">
+        <v>1</v>
+      </c>
+      <c r="C249" s="5">
+        <v>5</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B250" s="5">
+        <v>1</v>
+      </c>
+      <c r="C250" s="5">
+        <v>5</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B251" s="5">
+        <v>1</v>
+      </c>
+      <c r="C251" s="5">
+        <v>5</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B252" s="5">
+        <v>1</v>
+      </c>
+      <c r="C252" s="5">
+        <v>5</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" s="5">
+        <v>1</v>
+      </c>
+      <c r="C253" s="5">
+        <v>5</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B254" s="5">
+        <v>1</v>
+      </c>
+      <c r="C254" s="5">
+        <v>5</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B255" s="5">
+        <v>1</v>
+      </c>
+      <c r="C255" s="5">
+        <v>5</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B256" s="5">
+        <v>1</v>
+      </c>
+      <c r="C256" s="5">
+        <v>5</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B257" s="5">
+        <v>1</v>
+      </c>
+      <c r="C257" s="5">
+        <v>5</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B258" s="5">
+        <v>1</v>
+      </c>
+      <c r="C258" s="5">
+        <v>5</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B259" s="5">
+        <v>1</v>
+      </c>
+      <c r="C259" s="5">
+        <v>5</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" s="5">
+        <v>1</v>
+      </c>
+      <c r="C260" s="5">
+        <v>5</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B261" s="5">
+        <v>1</v>
+      </c>
+      <c r="C261" s="5">
+        <v>5</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B262" s="5">
+        <v>1</v>
+      </c>
+      <c r="C262" s="5">
+        <v>5</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B263" s="5">
+        <v>1</v>
+      </c>
+      <c r="C263" s="5">
+        <v>5</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B264" s="5">
+        <v>1</v>
+      </c>
+      <c r="C264" s="5">
+        <v>5</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B265" s="5">
+        <v>1</v>
+      </c>
+      <c r="C265" s="5">
+        <v>5</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B266" s="5">
+        <v>1</v>
+      </c>
+      <c r="C266" s="5">
+        <v>5</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B267" s="5">
+        <v>1</v>
+      </c>
+      <c r="C267" s="5">
+        <v>5</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B268" s="5">
+        <v>1</v>
+      </c>
+      <c r="C268" s="5">
+        <v>5</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B269" s="5">
+        <v>1</v>
+      </c>
+      <c r="C269" s="5">
+        <v>5</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B270" s="5">
+        <v>1</v>
+      </c>
+      <c r="C270" s="5">
+        <v>5</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B271" s="5">
+        <v>1</v>
+      </c>
+      <c r="C271" s="5">
+        <v>5</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B272" s="5">
+        <v>1</v>
+      </c>
+      <c r="C272" s="5">
+        <v>5</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B273" s="5">
+        <v>1</v>
+      </c>
+      <c r="C273" s="5">
+        <v>5</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B274" s="5">
+        <v>1</v>
+      </c>
+      <c r="C274" s="5">
+        <v>5</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" s="5">
+        <v>1</v>
+      </c>
+      <c r="C275" s="5">
+        <v>5</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B276" s="5">
+        <v>1</v>
+      </c>
+      <c r="C276" s="5">
+        <v>5</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B277" s="5">
+        <v>1</v>
+      </c>
+      <c r="C277" s="5">
+        <v>5</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B278" s="5">
+        <v>1</v>
+      </c>
+      <c r="C278" s="5">
+        <v>5</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B279" s="5">
+        <v>1</v>
+      </c>
+      <c r="C279" s="5">
+        <v>5</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B280" s="5">
+        <v>1</v>
+      </c>
+      <c r="C280" s="5">
+        <v>5</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B281" s="5">
+        <v>1</v>
+      </c>
+      <c r="C281" s="5">
+        <v>5</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>63</v>
       </c>
     </row>

--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B785EEC5-4F25-4E74-824F-5D4B12C6F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="65">
   <si>
     <t>nombre</t>
   </si>
@@ -151,10 +145,10 @@
     <t>Fam. Robledo Mendoza, Karent</t>
   </si>
   <si>
-    <t>Fam. Salas Huiza, Ricardo</t>
-  </si>
-  <si>
-    <t>Fam. Salas Huiza, Marlene</t>
+    <t>Fam. Salas Jsuiza, Ricardo</t>
+  </si>
+  <si>
+    <t>Fam. Salas Jsuiza, Marlene</t>
   </si>
   <si>
     <t>Fam. Salazar Anco, Omar</t>
@@ -209,6 +203,11 @@
   </si>
   <si>
     <t>Fam Astete Cahuapaza, Merly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asistio
+asistio
+</t>
   </si>
   <si>
     <t>sin dictar</t>
@@ -217,7 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,93 +260,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}" name="Tabla1" displayName="Tabla1" ref="A1:D281" totalsRowShown="0">
-  <autoFilter ref="A1:D281" xr:uid="{A8C84D6E-A1A3-4663-8015-EC47B8042815}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D281" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:D281"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2690417-E684-4DA2-81FB-B575401FD03E}" name="nombre" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6F078736-2BFB-454A-9668-9AB8DB02367E}" name="ciclo" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{0D06AAE8-6967-4661-B486-AB3437B75794}" name="semana" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{95A07596-795B-4C4A-BCA1-5D84979B43DE}" name="estado" dataDxfId="0"/>
+    <tableColumn name="nombre" id="1"/>
+    <tableColumn name="ciclo" id="2"/>
+    <tableColumn name="semana" id="3"/>
+    <tableColumn name="estado" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -355,10 +306,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -396,71 +347,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,7 +439,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -511,11 +462,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -524,13 +475,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -540,7 +491,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -549,7 +500,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -558,7 +509,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -566,10 +517,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -634,25 +585,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -680,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -708,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -722,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -736,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -750,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -764,7 +713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -778,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -792,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -820,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -834,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -848,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -862,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -876,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -890,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -904,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -918,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -932,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -946,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -960,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -974,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -988,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1030,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1044,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1058,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1072,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1086,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1114,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1128,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1142,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1170,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1184,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1198,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1212,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1226,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1240,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1268,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1282,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -1296,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -1310,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1324,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1338,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1352,7 +1301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -1366,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -1380,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -1394,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -1422,7 +1371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -1436,7 +1385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -1450,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -1464,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +1539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
       <c r="A70" s="1" t="s">
         <v>19</v>
       </c>
@@ -1632,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -1660,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
       <c r="A74" s="1" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -1702,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
@@ -1716,7 +1665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
       <c r="A77" s="1" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -1772,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
@@ -1786,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
@@ -1814,7 +1763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
@@ -1828,7 +1777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
       <c r="A86" s="1" t="s">
         <v>35</v>
       </c>
@@ -1856,7 +1805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
       <c r="A87" s="1" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
@@ -1884,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
       <c r="A89" s="1" t="s">
         <v>38</v>
       </c>
@@ -1898,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
       <c r="A90" s="1" t="s">
         <v>39</v>
       </c>
@@ -1912,7 +1861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -1926,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -1940,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
       <c r="A93" s="1" t="s">
         <v>42</v>
       </c>
@@ -1954,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
         <v>43</v>
       </c>
@@ -1968,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
         <v>44</v>
       </c>
@@ -1982,7 +1931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
@@ -1996,7 +1945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
@@ -2010,7 +1959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
       <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
@@ -2024,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
       <c r="A99" s="1" t="s">
         <v>48</v>
       </c>
@@ -2038,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
@@ -2052,7 +2001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
       <c r="A101" s="1" t="s">
         <v>50</v>
       </c>
@@ -2066,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
       <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
@@ -2080,7 +2029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
       <c r="A103" s="1" t="s">
         <v>52</v>
       </c>
@@ -2094,7 +2043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
       <c r="A104" s="1" t="s">
         <v>53</v>
       </c>
@@ -2108,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
       <c r="A105" s="1" t="s">
         <v>54</v>
       </c>
@@ -2122,7 +2071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
       <c r="A106" s="1" t="s">
         <v>55</v>
       </c>
@@ -2136,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
       <c r="A107" s="1" t="s">
         <v>56</v>
       </c>
@@ -2150,7 +2099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
       <c r="A108" s="1" t="s">
         <v>57</v>
       </c>
@@ -2164,7 +2113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
       <c r="A109" s="1" t="s">
         <v>58</v>
       </c>
@@ -2178,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
       <c r="A110" s="1" t="s">
         <v>59</v>
       </c>
@@ -2192,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
       <c r="A111" s="1" t="s">
         <v>60</v>
       </c>
@@ -2206,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
       <c r="A112" s="1" t="s">
         <v>61</v>
       </c>
@@ -2220,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
       <c r="A113" s="1" t="s">
         <v>62</v>
       </c>
@@ -2234,7 +2183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -2290,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -2304,7 +2253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -2318,7 +2267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -2332,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
@@ -2346,7 +2295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
@@ -2360,7 +2309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
@@ -2374,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -2388,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
       <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
@@ -2402,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
       <c r="A126" s="1" t="s">
         <v>19</v>
       </c>
@@ -2416,7 +2365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
       <c r="A127" s="1" t="s">
         <v>20</v>
       </c>
@@ -2430,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -2444,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
       <c r="A129" s="1" t="s">
         <v>22</v>
       </c>
@@ -2458,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
       <c r="A130" s="1" t="s">
         <v>23</v>
       </c>
@@ -2472,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -2486,7 +2435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
       <c r="A132" s="1" t="s">
         <v>25</v>
       </c>
@@ -2500,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
       <c r="A133" s="1" t="s">
         <v>26</v>
       </c>
@@ -2514,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
       <c r="A134" s="1" t="s">
         <v>27</v>
       </c>
@@ -2528,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
       <c r="A135" s="1" t="s">
         <v>28</v>
       </c>
@@ -2542,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
@@ -2570,7 +2519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
       <c r="A138" s="1" t="s">
         <v>31</v>
       </c>
@@ -2584,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
       <c r="A139" s="1" t="s">
         <v>32</v>
       </c>
@@ -2598,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
       <c r="A140" s="1" t="s">
         <v>33</v>
       </c>
@@ -2612,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
       <c r="A141" s="1" t="s">
         <v>34</v>
       </c>
@@ -2626,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
       <c r="A142" s="1" t="s">
         <v>35</v>
       </c>
@@ -2640,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
@@ -2654,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
       <c r="A144" s="1" t="s">
         <v>37</v>
       </c>
@@ -2668,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
       <c r="A145" s="1" t="s">
         <v>38</v>
       </c>
@@ -2682,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
       <c r="A146" s="1" t="s">
         <v>39</v>
       </c>
@@ -2696,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
       <c r="A147" s="1" t="s">
         <v>40</v>
       </c>
@@ -2710,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
       <c r="A148" s="1" t="s">
         <v>41</v>
       </c>
@@ -2724,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
       <c r="A149" s="1" t="s">
         <v>42</v>
       </c>
@@ -2738,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
         <v>43</v>
       </c>
@@ -2752,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
         <v>44</v>
       </c>
@@ -2766,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
       <c r="A152" s="1" t="s">
         <v>45</v>
       </c>
@@ -2780,7 +2729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
       <c r="A153" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,7 +2743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
       <c r="A154" s="1" t="s">
         <v>47</v>
       </c>
@@ -2808,7 +2757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
       <c r="A155" s="1" t="s">
         <v>48</v>
       </c>
@@ -2822,7 +2771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
       <c r="A156" s="1" t="s">
         <v>49</v>
       </c>
@@ -2836,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
       <c r="A157" s="1" t="s">
         <v>50</v>
       </c>
@@ -2850,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
       <c r="A158" s="1" t="s">
         <v>51</v>
       </c>
@@ -2864,7 +2813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
       <c r="A159" s="1" t="s">
         <v>52</v>
       </c>
@@ -2878,7 +2827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
       <c r="A160" s="1" t="s">
         <v>53</v>
       </c>
@@ -2892,7 +2841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
       <c r="A161" s="1" t="s">
         <v>54</v>
       </c>
@@ -2906,7 +2855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
       <c r="A162" s="1" t="s">
         <v>55</v>
       </c>
@@ -2920,7 +2869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
       <c r="A163" s="1" t="s">
         <v>56</v>
       </c>
@@ -2934,7 +2883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
       <c r="A164" s="1" t="s">
         <v>57</v>
       </c>
@@ -2948,7 +2897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
       <c r="A165" s="1" t="s">
         <v>58</v>
       </c>
@@ -2962,7 +2911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
       <c r="A166" s="1" t="s">
         <v>59</v>
       </c>
@@ -2976,7 +2925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
       <c r="A167" s="1" t="s">
         <v>60</v>
       </c>
@@ -2990,7 +2939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
       <c r="A168" s="1" t="s">
         <v>61</v>
       </c>
@@ -3004,7 +2953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" hidden="1">
       <c r="A169" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,1572 +2967,1572 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="5">
-        <v>1</v>
-      </c>
-      <c r="C170" s="5">
-        <v>4</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
+      <c r="A170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
+      <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B171" s="5">
-        <v>1</v>
-      </c>
-      <c r="C171" s="5">
-        <v>4</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
+      <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B172" s="5">
-        <v>1</v>
-      </c>
-      <c r="C172" s="5">
-        <v>4</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2">
+        <v>4</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" hidden="1">
+      <c r="A173" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B173" s="5">
-        <v>1</v>
-      </c>
-      <c r="C173" s="5">
-        <v>4</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="B173" s="2">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2">
+        <v>4</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" hidden="1">
+      <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B174" s="5">
-        <v>1</v>
-      </c>
-      <c r="C174" s="5">
-        <v>4</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="B174" s="2">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2">
+        <v>4</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
+      <c r="A175" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B175" s="5">
-        <v>1</v>
-      </c>
-      <c r="C175" s="5">
-        <v>4</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2">
+        <v>4</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
+      <c r="A176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B176" s="5">
-        <v>1</v>
-      </c>
-      <c r="C176" s="5">
-        <v>4</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
+      <c r="A177" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B177" s="5">
-        <v>1</v>
-      </c>
-      <c r="C177" s="5">
-        <v>4</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+      <c r="B177" s="2">
+        <v>1</v>
+      </c>
+      <c r="C177" s="2">
+        <v>4</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
+      <c r="A178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="5">
-        <v>1</v>
-      </c>
-      <c r="C178" s="5">
-        <v>4</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2">
+        <v>4</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" hidden="1">
+      <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B179" s="5">
-        <v>1</v>
-      </c>
-      <c r="C179" s="5">
-        <v>4</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="B179" s="2">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2">
+        <v>4</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
+      <c r="A180" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B180" s="5">
-        <v>1</v>
-      </c>
-      <c r="C180" s="5">
-        <v>4</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="B180" s="2">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2">
+        <v>4</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" hidden="1">
+      <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="5">
-        <v>1</v>
-      </c>
-      <c r="C181" s="5">
-        <v>4</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2">
+        <v>4</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
+      <c r="A182" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B182" s="5">
-        <v>1</v>
-      </c>
-      <c r="C182" s="5">
-        <v>4</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
+      <c r="A183" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="5">
-        <v>1</v>
-      </c>
-      <c r="C183" s="5">
-        <v>4</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
+        <v>4</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" hidden="1">
+      <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B184" s="5">
-        <v>1</v>
-      </c>
-      <c r="C184" s="5">
-        <v>4</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="B184" s="2">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2">
+        <v>4</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" hidden="1">
+      <c r="A185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B185" s="5">
-        <v>1</v>
-      </c>
-      <c r="C185" s="5">
-        <v>4</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="B185" s="2">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" hidden="1">
+      <c r="A186" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B186" s="5">
-        <v>1</v>
-      </c>
-      <c r="C186" s="5">
-        <v>4</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2">
+        <v>4</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" hidden="1">
+      <c r="A187" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B187" s="5">
-        <v>1</v>
-      </c>
-      <c r="C187" s="5">
-        <v>4</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="B187" s="2">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2">
+        <v>4</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" hidden="1">
+      <c r="A188" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B188" s="5">
-        <v>1</v>
-      </c>
-      <c r="C188" s="5">
-        <v>4</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="B188" s="2">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2">
+        <v>4</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" hidden="1">
+      <c r="A189" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B189" s="5">
-        <v>1</v>
-      </c>
-      <c r="C189" s="5">
-        <v>4</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="B189" s="2">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2">
+        <v>4</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" hidden="1">
+      <c r="A190" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B190" s="5">
-        <v>1</v>
-      </c>
-      <c r="C190" s="5">
-        <v>4</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="B190" s="2">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2">
+        <v>4</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" hidden="1">
+      <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B191" s="5">
-        <v>1</v>
-      </c>
-      <c r="C191" s="5">
-        <v>4</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2">
+        <v>4</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
+      <c r="A192" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B192" s="5">
-        <v>1</v>
-      </c>
-      <c r="C192" s="5">
-        <v>4</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="B192" s="2">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2">
+        <v>4</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" hidden="1">
+      <c r="A193" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B193" s="5">
-        <v>1</v>
-      </c>
-      <c r="C193" s="5">
-        <v>4</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="B193" s="2">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2">
+        <v>4</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
+      <c r="A194" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B194" s="5">
-        <v>1</v>
-      </c>
-      <c r="C194" s="5">
-        <v>4</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="B194" s="2">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2">
+        <v>4</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" hidden="1">
+      <c r="A195" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B195" s="5">
-        <v>1</v>
-      </c>
-      <c r="C195" s="5">
-        <v>4</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
+      <c r="C195" s="2">
+        <v>4</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" hidden="1">
+      <c r="A196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B196" s="5">
-        <v>1</v>
-      </c>
-      <c r="C196" s="5">
-        <v>4</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2">
+        <v>4</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" hidden="1">
+      <c r="A197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B197" s="5">
-        <v>1</v>
-      </c>
-      <c r="C197" s="5">
-        <v>4</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
+      <c r="C197" s="2">
+        <v>4</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" hidden="1">
+      <c r="A198" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B198" s="5">
-        <v>1</v>
-      </c>
-      <c r="C198" s="5">
-        <v>4</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
+      <c r="B198" s="2">
+        <v>1</v>
+      </c>
+      <c r="C198" s="2">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" hidden="1">
+      <c r="A199" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B199" s="5">
-        <v>1</v>
-      </c>
-      <c r="C199" s="5">
-        <v>4</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2">
+        <v>4</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" hidden="1">
+      <c r="A200" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B200" s="5">
-        <v>1</v>
-      </c>
-      <c r="C200" s="5">
-        <v>4</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="B200" s="2">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2">
+        <v>4</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
+      <c r="A201" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B201" s="5">
-        <v>1</v>
-      </c>
-      <c r="C201" s="5">
-        <v>4</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+      <c r="B201" s="2">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2">
+        <v>4</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
+      <c r="A202" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B202" s="5">
-        <v>1</v>
-      </c>
-      <c r="C202" s="5">
-        <v>4</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+      <c r="B202" s="2">
+        <v>1</v>
+      </c>
+      <c r="C202" s="2">
+        <v>4</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" hidden="1">
+      <c r="A203" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B203" s="5">
-        <v>1</v>
-      </c>
-      <c r="C203" s="5">
-        <v>4</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="B203" s="2">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2">
+        <v>4</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" hidden="1">
+      <c r="A204" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B204" s="5">
-        <v>1</v>
-      </c>
-      <c r="C204" s="5">
-        <v>4</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+      <c r="B204" s="2">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2">
+        <v>4</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" hidden="1">
+      <c r="A205" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B205" s="5">
-        <v>1</v>
-      </c>
-      <c r="C205" s="5">
-        <v>4</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
+      <c r="B205" s="2">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2">
+        <v>4</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B206" s="5">
-        <v>1</v>
-      </c>
-      <c r="C206" s="5">
-        <v>4</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2">
+        <v>4</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B207" s="5">
-        <v>1</v>
-      </c>
-      <c r="C207" s="5">
-        <v>4</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
+        <v>4</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" hidden="1">
+      <c r="A208" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B208" s="5">
-        <v>1</v>
-      </c>
-      <c r="C208" s="5">
-        <v>4</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="B208" s="2">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2">
+        <v>4</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" hidden="1">
+      <c r="A209" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B209" s="5">
-        <v>1</v>
-      </c>
-      <c r="C209" s="5">
-        <v>4</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" hidden="1">
+      <c r="A210" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="5">
-        <v>1</v>
-      </c>
-      <c r="C210" s="5">
-        <v>4</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2">
+        <v>4</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" hidden="1">
+      <c r="A211" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B211" s="5">
-        <v>1</v>
-      </c>
-      <c r="C211" s="5">
-        <v>4</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2">
+        <v>4</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" hidden="1">
+      <c r="A212" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B212" s="5">
-        <v>1</v>
-      </c>
-      <c r="C212" s="5">
-        <v>4</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+      <c r="B212" s="2">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2">
+        <v>4</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" hidden="1">
+      <c r="A213" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="5">
-        <v>1</v>
-      </c>
-      <c r="C213" s="5">
-        <v>4</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2">
+        <v>4</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
+      <c r="A214" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B214" s="5">
-        <v>1</v>
-      </c>
-      <c r="C214" s="5">
-        <v>4</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="B214" s="2">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2">
+        <v>4</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
+      <c r="A215" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B215" s="5">
-        <v>1</v>
-      </c>
-      <c r="C215" s="5">
-        <v>4</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
+      <c r="B215" s="2">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2">
+        <v>4</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" hidden="1">
+      <c r="A216" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="5">
-        <v>1</v>
-      </c>
-      <c r="C216" s="5">
-        <v>4</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="B216" s="2">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2">
+        <v>4</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
+      <c r="A217" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B217" s="5">
-        <v>1</v>
-      </c>
-      <c r="C217" s="5">
-        <v>4</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
+      <c r="C217" s="2">
+        <v>4</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" hidden="1">
+      <c r="A218" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B218" s="5">
-        <v>1</v>
-      </c>
-      <c r="C218" s="5">
-        <v>4</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2">
+        <v>4</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" hidden="1">
+      <c r="A219" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B219" s="5">
-        <v>1</v>
-      </c>
-      <c r="C219" s="5">
-        <v>4</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+      <c r="B219" s="2">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2">
+        <v>4</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" hidden="1">
+      <c r="A220" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B220" s="5">
-        <v>1</v>
-      </c>
-      <c r="C220" s="5">
-        <v>4</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>4</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
+      <c r="A221" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B221" s="5">
-        <v>1</v>
-      </c>
-      <c r="C221" s="5">
-        <v>4</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2">
+        <v>4</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" hidden="1">
+      <c r="A222" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B222" s="5">
-        <v>1</v>
-      </c>
-      <c r="C222" s="5">
-        <v>4</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2">
+        <v>4</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" hidden="1">
+      <c r="A223" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="5">
-        <v>1</v>
-      </c>
-      <c r="C223" s="5">
-        <v>4</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2">
+        <v>4</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" hidden="1">
+      <c r="A224" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B224" s="5">
-        <v>1</v>
-      </c>
-      <c r="C224" s="5">
-        <v>4</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="B224" s="2">
+        <v>1</v>
+      </c>
+      <c r="C224" s="2">
+        <v>4</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" hidden="1">
+      <c r="A225" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B225" s="5">
-        <v>1</v>
-      </c>
-      <c r="C225" s="5">
-        <v>4</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B226" s="5">
-        <v>1</v>
-      </c>
-      <c r="C226" s="5">
-        <v>5</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
+      <c r="B225" s="2">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2">
+        <v>4</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" hidden="1">
+      <c r="A226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" hidden="1">
+      <c r="A227" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B227" s="5">
-        <v>1</v>
-      </c>
-      <c r="C227" s="5">
-        <v>5</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="B227" s="2">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
+      <c r="A228" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B228" s="5">
-        <v>1</v>
-      </c>
-      <c r="C228" s="5">
-        <v>5</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
+      <c r="C228" s="2">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" hidden="1">
+      <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B229" s="5">
-        <v>1</v>
-      </c>
-      <c r="C229" s="5">
-        <v>5</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="B229" s="2">
+        <v>1</v>
+      </c>
+      <c r="C229" s="2">
+        <v>5</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" hidden="1">
+      <c r="A230" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B230" s="5">
-        <v>1</v>
-      </c>
-      <c r="C230" s="5">
-        <v>5</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+      <c r="B230" s="2">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" hidden="1">
+      <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B231" s="5">
-        <v>1</v>
-      </c>
-      <c r="C231" s="5">
-        <v>5</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" hidden="1">
+      <c r="A232" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B232" s="5">
-        <v>1</v>
-      </c>
-      <c r="C232" s="5">
-        <v>5</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" hidden="1">
+      <c r="A233" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B233" s="5">
-        <v>1</v>
-      </c>
-      <c r="C233" s="5">
-        <v>5</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="B233" s="2">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" hidden="1">
+      <c r="A234" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B234" s="5">
-        <v>1</v>
-      </c>
-      <c r="C234" s="5">
-        <v>5</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" hidden="1">
+      <c r="A235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B235" s="5">
-        <v>1</v>
-      </c>
-      <c r="C235" s="5">
-        <v>5</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="B235" s="2">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" hidden="1">
+      <c r="A236" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B236" s="5">
-        <v>1</v>
-      </c>
-      <c r="C236" s="5">
-        <v>5</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
+      <c r="B236" s="2">
+        <v>1</v>
+      </c>
+      <c r="C236" s="2">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" hidden="1">
+      <c r="A237" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B237" s="5">
-        <v>1</v>
-      </c>
-      <c r="C237" s="5">
-        <v>5</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="B237" s="2">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" hidden="1">
+      <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B238" s="5">
-        <v>1</v>
-      </c>
-      <c r="C238" s="5">
-        <v>5</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2">
+        <v>5</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
+      <c r="A239" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B239" s="5">
-        <v>1</v>
-      </c>
-      <c r="C239" s="5">
-        <v>5</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
+      <c r="B239" s="2">
+        <v>1</v>
+      </c>
+      <c r="C239" s="2">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" hidden="1">
+      <c r="A240" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B240" s="5">
-        <v>1</v>
-      </c>
-      <c r="C240" s="5">
-        <v>5</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
+      <c r="C240" s="2">
+        <v>5</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" hidden="1">
+      <c r="A241" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B241" s="5">
-        <v>1</v>
-      </c>
-      <c r="C241" s="5">
-        <v>5</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2">
+        <v>5</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" hidden="1">
+      <c r="A242" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B242" s="5">
-        <v>1</v>
-      </c>
-      <c r="C242" s="5">
-        <v>5</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+      <c r="B242" s="2">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" hidden="1">
+      <c r="A243" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B243" s="5">
-        <v>1</v>
-      </c>
-      <c r="C243" s="5">
-        <v>5</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="B243" s="2">
+        <v>1</v>
+      </c>
+      <c r="C243" s="2">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" hidden="1">
+      <c r="A244" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B244" s="5">
-        <v>1</v>
-      </c>
-      <c r="C244" s="5">
-        <v>5</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" hidden="1">
+      <c r="A245" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B245" s="5">
-        <v>1</v>
-      </c>
-      <c r="C245" s="5">
-        <v>5</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="B245" s="2">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" hidden="1">
+      <c r="A246" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B246" s="5">
-        <v>1</v>
-      </c>
-      <c r="C246" s="5">
-        <v>5</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" hidden="1">
+      <c r="A247" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B247" s="5">
-        <v>1</v>
-      </c>
-      <c r="C247" s="5">
-        <v>5</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="B247" s="2">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" hidden="1">
+      <c r="A248" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B248" s="5">
-        <v>1</v>
-      </c>
-      <c r="C248" s="5">
-        <v>5</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="B248" s="2">
+        <v>1</v>
+      </c>
+      <c r="C248" s="2">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
+      <c r="A249" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B249" s="5">
-        <v>1</v>
-      </c>
-      <c r="C249" s="5">
-        <v>5</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2">
+        <v>5</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
+      <c r="A250" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B250" s="5">
-        <v>1</v>
-      </c>
-      <c r="C250" s="5">
-        <v>5</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+      <c r="B250" s="2">
+        <v>1</v>
+      </c>
+      <c r="C250" s="2">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
+      <c r="A251" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B251" s="5">
-        <v>1</v>
-      </c>
-      <c r="C251" s="5">
-        <v>5</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" hidden="1">
+      <c r="A252" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B252" s="5">
-        <v>1</v>
-      </c>
-      <c r="C252" s="5">
-        <v>5</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
+      <c r="A253" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B253" s="5">
-        <v>1</v>
-      </c>
-      <c r="C253" s="5">
-        <v>5</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" hidden="1">
+      <c r="A254" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B254" s="5">
-        <v>1</v>
-      </c>
-      <c r="C254" s="5">
-        <v>5</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" hidden="1">
+      <c r="A255" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B255" s="5">
-        <v>1</v>
-      </c>
-      <c r="C255" s="5">
-        <v>5</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="B255" s="2">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2">
+        <v>5</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
+      <c r="A256" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B256" s="5">
-        <v>1</v>
-      </c>
-      <c r="C256" s="5">
-        <v>5</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2">
+        <v>5</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" hidden="1">
+      <c r="A257" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B257" s="5">
-        <v>1</v>
-      </c>
-      <c r="C257" s="5">
-        <v>5</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2">
+        <v>5</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" hidden="1">
+      <c r="A258" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B258" s="5">
-        <v>1</v>
-      </c>
-      <c r="C258" s="5">
-        <v>5</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="B258" s="2">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2">
+        <v>5</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" hidden="1">
+      <c r="A259" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="5">
-        <v>1</v>
-      </c>
-      <c r="C259" s="5">
-        <v>5</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2">
+        <v>5</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" hidden="1">
+      <c r="A260" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B260" s="5">
-        <v>1</v>
-      </c>
-      <c r="C260" s="5">
-        <v>5</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+      <c r="B260" s="2">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2">
+        <v>5</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" hidden="1">
+      <c r="A261" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B261" s="5">
-        <v>1</v>
-      </c>
-      <c r="C261" s="5">
-        <v>5</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+      <c r="B261" s="2">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2">
+        <v>5</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="A262" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B262" s="5">
-        <v>1</v>
-      </c>
-      <c r="C262" s="5">
-        <v>5</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="B262" s="2">
+        <v>1</v>
+      </c>
+      <c r="C262" s="2">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+      <c r="A263" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B263" s="5">
-        <v>1</v>
-      </c>
-      <c r="C263" s="5">
-        <v>5</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
+      <c r="B263" s="2">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2">
+        <v>5</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
+      <c r="A264" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B264" s="5">
-        <v>1</v>
-      </c>
-      <c r="C264" s="5">
-        <v>5</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="3" t="s">
+      <c r="B264" s="2">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
+      <c r="A265" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B265" s="5">
-        <v>1</v>
-      </c>
-      <c r="C265" s="5">
-        <v>5</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
+      <c r="B265" s="2">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2">
+        <v>5</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
+      <c r="A266" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B266" s="5">
-        <v>1</v>
-      </c>
-      <c r="C266" s="5">
-        <v>5</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
+      <c r="B266" s="2">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2">
+        <v>5</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" hidden="1">
+      <c r="A267" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B267" s="5">
-        <v>1</v>
-      </c>
-      <c r="C267" s="5">
-        <v>5</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+      <c r="B267" s="2">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" hidden="1">
+      <c r="A268" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B268" s="5">
-        <v>1</v>
-      </c>
-      <c r="C268" s="5">
-        <v>5</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
+      <c r="B268" s="2">
+        <v>1</v>
+      </c>
+      <c r="C268" s="2">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" hidden="1">
+      <c r="A269" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B269" s="5">
-        <v>1</v>
-      </c>
-      <c r="C269" s="5">
-        <v>5</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
+      <c r="B269" s="2">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2">
+        <v>5</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" hidden="1">
+      <c r="A270" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B270" s="5">
-        <v>1</v>
-      </c>
-      <c r="C270" s="5">
-        <v>5</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
+      <c r="B270" s="2">
+        <v>1</v>
+      </c>
+      <c r="C270" s="2">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" hidden="1">
+      <c r="A271" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B271" s="5">
-        <v>1</v>
-      </c>
-      <c r="C271" s="5">
-        <v>5</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" hidden="1">
+      <c r="A272" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B272" s="5">
-        <v>1</v>
-      </c>
-      <c r="C272" s="5">
-        <v>5</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
+      <c r="C272" s="2">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" hidden="1">
+      <c r="A273" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B273" s="5">
-        <v>1</v>
-      </c>
-      <c r="C273" s="5">
-        <v>5</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
+      <c r="B273" s="2">
+        <v>1</v>
+      </c>
+      <c r="C273" s="2">
+        <v>5</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" hidden="1">
+      <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B274" s="5">
-        <v>1</v>
-      </c>
-      <c r="C274" s="5">
-        <v>5</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
+      <c r="B274" s="2">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" hidden="1">
+      <c r="A275" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B275" s="5">
-        <v>1</v>
-      </c>
-      <c r="C275" s="5">
-        <v>5</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" hidden="1">
+      <c r="A276" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B276" s="5">
-        <v>1</v>
-      </c>
-      <c r="C276" s="5">
-        <v>5</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
+      <c r="B276" s="2">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" hidden="1">
+      <c r="A277" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B277" s="5">
-        <v>1</v>
-      </c>
-      <c r="C277" s="5">
-        <v>5</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
+      <c r="C277" s="2">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" hidden="1">
+      <c r="A278" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B278" s="5">
-        <v>1</v>
-      </c>
-      <c r="C278" s="5">
-        <v>5</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" hidden="1">
+      <c r="A279" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B279" s="5">
-        <v>1</v>
-      </c>
-      <c r="C279" s="5">
-        <v>5</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
+      <c r="B279" s="2">
+        <v>1</v>
+      </c>
+      <c r="C279" s="2">
+        <v>5</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" hidden="1">
+      <c r="A280" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B280" s="5">
-        <v>1</v>
-      </c>
-      <c r="C280" s="5">
-        <v>5</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
+      <c r="B280" s="2">
+        <v>1</v>
+      </c>
+      <c r="C280" s="2">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" hidden="1">
+      <c r="A281" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B281" s="5">
-        <v>1</v>
-      </c>
-      <c r="C281" s="5">
-        <v>5</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>63</v>
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D6522E-69C0-420C-A297-EEB3DAE9F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="66">
   <si>
     <t>nombre</t>
   </si>
@@ -145,12 +156,6 @@
     <t>Fam. Robledo Mendoza, Karent</t>
   </si>
   <si>
-    <t>Fam. Salas Jsuiza, Ricardo</t>
-  </si>
-  <si>
-    <t>Fam. Salas Jsuiza, Marlene</t>
-  </si>
-  <si>
     <t>Fam. Salazar Anco, Omar</t>
   </si>
   <si>
@@ -205,19 +210,25 @@
     <t>Fam Astete Cahuapaza, Merly</t>
   </si>
   <si>
-    <t xml:space="preserve">asistio
-asistio
-</t>
-  </si>
-  <si>
     <t>sin dictar</t>
+  </si>
+  <si>
+    <t>Fam. Salas Isuiza, Ricardo</t>
+  </si>
+  <si>
+    <t>Fam. Salas Isuiza, Marlene</t>
+  </si>
+  <si>
+    <t>Aurora Qquenta</t>
+  </si>
+  <si>
+    <t>Franklin vila</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,43 +272,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D281" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:D281"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D339" totalsRowShown="0">
+  <autoFilter ref="A1:D339" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn name="nombre" id="1"/>
-    <tableColumn name="ciclo" id="2"/>
-    <tableColumn name="semana" id="3"/>
-    <tableColumn name="estado" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nombre"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ciclo"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="semana"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="estado"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -306,10 +316,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -347,71 +357,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,7 +449,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -462,11 +472,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -475,13 +485,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -491,7 +501,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -500,7 +510,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -509,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -517,10 +527,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -585,23 +595,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D339"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="D339" sqref="D339"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -643,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -657,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -671,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -685,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -713,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -741,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -755,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -769,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -783,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -797,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -811,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -825,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -839,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -853,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -867,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -881,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -895,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -909,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -923,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -937,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -951,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -965,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -979,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1091,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1119,37 +1131,37 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -1161,79 +1173,79 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -1245,9 +1257,9 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -1259,37 +1271,37 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -1301,9 +1313,9 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -1315,80 +1327,80 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="B57" s="2">
         <v>1</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
+    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
+    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,7 +1663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
+    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>26</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
+    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -1707,7 +1719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
@@ -1735,7 +1747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
+    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
@@ -1763,7 +1775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>34</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
+    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
+    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>36</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
+    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>38</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>39</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
+    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
+    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
+    <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,121 +1915,121 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2">
-        <v>2</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="2">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
-      <c r="A96" s="1" t="s">
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="2">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2">
-        <v>2</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="2">
-        <v>1</v>
-      </c>
-      <c r="C97" s="2">
-        <v>2</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
-      <c r="A98" s="1" t="s">
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="2">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2">
-        <v>2</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
-      <c r="A99" s="1" t="s">
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="2">
-        <v>1</v>
-      </c>
-      <c r="C99" s="2">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
-      <c r="A100" s="1" t="s">
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B100" s="2">
-        <v>1</v>
-      </c>
-      <c r="C100" s="2">
-        <v>2</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
-      <c r="A101" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="2">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
-      <c r="A102" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
@@ -2029,9 +2041,9 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
+    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
@@ -2043,51 +2055,51 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
+    <row r="104" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="2">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2">
-        <v>2</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
-      <c r="A105" s="1" t="s">
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B105" s="2">
-        <v>1</v>
-      </c>
-      <c r="C105" s="2">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
-      <c r="A106" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B106" s="2">
-        <v>1</v>
-      </c>
-      <c r="C106" s="2">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
-      <c r="A107" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -2099,80 +2111,80 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
+    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2">
-        <v>2</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
-      <c r="A109" s="1" t="s">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-      <c r="C109" s="2">
-        <v>2</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
-      <c r="A110" s="1" t="s">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="2">
-        <v>2</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
-      <c r="A111" s="1" t="s">
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
-      <c r="A112" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
-      <c r="A113" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="B113" s="2">
         <v>1</v>
       </c>
@@ -2183,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
+    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
+    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
+    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
+    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
+    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
+    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
+    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
+    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
+    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
+    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
+    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
+    <row r="126" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>19</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>20</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
+    <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -2393,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
+    <row r="129" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>22</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
+    <row r="130" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>23</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
+    <row r="131" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -2435,7 +2447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
+    <row r="132" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>25</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
+    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>26</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
+    <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
+    <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>28</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
+    <row r="136" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
+    <row r="137" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
+    <row r="138" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>31</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
+    <row r="139" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
+    <row r="140" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>33</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
+    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>34</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
+    <row r="142" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>35</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
+    <row r="143" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
+    <row r="144" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>37</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
+    <row r="145" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>38</v>
       </c>
@@ -2631,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
+    <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>39</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
+    <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
+    <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>41</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
+    <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>42</v>
       </c>
@@ -2687,65 +2699,65 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B150" s="2">
-        <v>1</v>
-      </c>
-      <c r="C150" s="2">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="1" t="s">
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B151" s="2">
-        <v>1</v>
-      </c>
-      <c r="C151" s="2">
-        <v>3</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
-      <c r="A152" s="1" t="s">
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B152" s="2">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2">
-        <v>3</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
-      <c r="A153" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B153" s="2">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2">
-        <v>3</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
-      <c r="A154" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B154" s="2">
         <v>1</v>
@@ -2757,9 +2769,9 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
+    <row r="155" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B155" s="2">
         <v>1</v>
@@ -2771,192 +2783,192 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
+    <row r="156" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B156" s="2">
-        <v>1</v>
-      </c>
-      <c r="C156" s="2">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
-      <c r="A157" s="1" t="s">
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="2">
-        <v>1</v>
-      </c>
-      <c r="C157" s="2">
-        <v>3</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
-      <c r="A158" s="1" t="s">
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B158" s="2">
-        <v>1</v>
-      </c>
-      <c r="C158" s="2">
-        <v>3</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
-      <c r="A159" s="1" t="s">
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B159" s="2">
-        <v>1</v>
-      </c>
-      <c r="C159" s="2">
-        <v>3</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
-      <c r="A160" s="1" t="s">
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B160" s="2">
-        <v>1</v>
-      </c>
-      <c r="C160" s="2">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
-      <c r="A161" s="1" t="s">
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B161" s="2">
-        <v>1</v>
-      </c>
-      <c r="C161" s="2">
-        <v>3</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
-      <c r="A162" s="1" t="s">
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B162" s="2">
-        <v>1</v>
-      </c>
-      <c r="C162" s="2">
-        <v>3</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
-      <c r="A163" s="1" t="s">
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="2">
-        <v>1</v>
-      </c>
-      <c r="C163" s="2">
-        <v>3</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
-      <c r="A164" s="1" t="s">
+      <c r="B165" s="2">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2">
+        <v>3</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B164" s="2">
-        <v>1</v>
-      </c>
-      <c r="C164" s="2">
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
-      <c r="A165" s="1" t="s">
+      <c r="B166" s="2">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B165" s="2">
-        <v>1</v>
-      </c>
-      <c r="C165" s="2">
-        <v>3</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
-      <c r="A166" s="1" t="s">
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B166" s="2">
-        <v>1</v>
-      </c>
-      <c r="C166" s="2">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
-      <c r="A167" s="1" t="s">
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
+        <v>3</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B167" s="2">
-        <v>1</v>
-      </c>
-      <c r="C167" s="2">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
-      <c r="A168" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B168" s="2">
-        <v>1</v>
-      </c>
-      <c r="C168" s="2">
-        <v>3</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" hidden="1">
-      <c r="A169" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="B169" s="2">
         <v>1</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
+    <row r="170" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>4</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
+    <row r="171" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
+    <row r="172" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" hidden="1">
+    <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>8</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" hidden="1">
+    <row r="174" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
+    <row r="175" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>10</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
+    <row r="176" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>12</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
+    <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>14</v>
       </c>
@@ -3079,7 +3091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
+    <row r="178" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>15</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" hidden="1">
+    <row r="179" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
+    <row r="180" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>17</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" hidden="1">
+    <row r="181" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
@@ -3135,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
+    <row r="182" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>19</v>
       </c>
@@ -3149,7 +3161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
+    <row r="183" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>20</v>
       </c>
@@ -3163,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" hidden="1">
+    <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" hidden="1">
+    <row r="185" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>22</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" hidden="1">
+    <row r="186" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>23</v>
       </c>
@@ -3205,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" hidden="1">
+    <row r="187" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>24</v>
       </c>
@@ -3219,7 +3231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" hidden="1">
+    <row r="188" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>25</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" hidden="1">
+    <row r="189" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>26</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" hidden="1">
+    <row r="190" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>27</v>
       </c>
@@ -3261,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" hidden="1">
+    <row r="191" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
@@ -3271,11 +3283,11 @@
       <c r="C191" s="2">
         <v>4</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
+      <c r="D191" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>29</v>
       </c>
@@ -3289,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" hidden="1">
+    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>30</v>
       </c>
@@ -3303,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
+    <row r="194" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>31</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" hidden="1">
+    <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>32</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" hidden="1">
+    <row r="196" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>33</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" hidden="1">
+    <row r="197" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>34</v>
       </c>
@@ -3359,7 +3371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" hidden="1">
+    <row r="198" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>35</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" hidden="1">
+    <row r="199" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>36</v>
       </c>
@@ -3387,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" hidden="1">
+    <row r="200" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>37</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
+    <row r="201" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>38</v>
       </c>
@@ -3415,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
+    <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>39</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" hidden="1">
+    <row r="203" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>40</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" hidden="1">
+    <row r="204" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>41</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" hidden="1">
+    <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>42</v>
       </c>
@@ -3471,276 +3483,276 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2">
+        <v>4</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
+        <v>4</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B206" s="2">
-        <v>1</v>
-      </c>
-      <c r="C206" s="2">
-        <v>4</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="1" t="s">
+      <c r="B208" s="2">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2">
+        <v>4</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B207" s="2">
-        <v>1</v>
-      </c>
-      <c r="C207" s="2">
-        <v>4</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" hidden="1">
-      <c r="A208" s="1" t="s">
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B208" s="2">
-        <v>1</v>
-      </c>
-      <c r="C208" s="2">
-        <v>4</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" hidden="1">
-      <c r="A209" s="1" t="s">
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2">
+        <v>4</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B209" s="2">
-        <v>1</v>
-      </c>
-      <c r="C209" s="2">
-        <v>4</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" hidden="1">
-      <c r="A210" s="1" t="s">
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2">
+        <v>4</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B210" s="2">
-        <v>1</v>
-      </c>
-      <c r="C210" s="2">
-        <v>4</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" hidden="1">
-      <c r="A211" s="1" t="s">
+      <c r="B212" s="2">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2">
+        <v>4</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B211" s="2">
-        <v>1</v>
-      </c>
-      <c r="C211" s="2">
-        <v>4</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" hidden="1">
-      <c r="A212" s="1" t="s">
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2">
+        <v>4</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B212" s="2">
-        <v>1</v>
-      </c>
-      <c r="C212" s="2">
-        <v>4</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" hidden="1">
-      <c r="A213" s="1" t="s">
+      <c r="B214" s="2">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2">
+        <v>4</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="2">
-        <v>1</v>
-      </c>
-      <c r="C213" s="2">
-        <v>4</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
-      <c r="A214" s="1" t="s">
+      <c r="B215" s="2">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2">
+        <v>4</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B214" s="2">
-        <v>1</v>
-      </c>
-      <c r="C214" s="2">
-        <v>4</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
-      <c r="A215" s="1" t="s">
+      <c r="B216" s="2">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2">
+        <v>4</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B215" s="2">
-        <v>1</v>
-      </c>
-      <c r="C215" s="2">
-        <v>4</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" hidden="1">
-      <c r="A216" s="1" t="s">
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
+      <c r="C217" s="2">
+        <v>4</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="2">
-        <v>1</v>
-      </c>
-      <c r="C216" s="2">
-        <v>4</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
-      <c r="A217" s="1" t="s">
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2">
+        <v>4</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B217" s="2">
-        <v>1</v>
-      </c>
-      <c r="C217" s="2">
-        <v>4</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" hidden="1">
-      <c r="A218" s="1" t="s">
+      <c r="B219" s="2">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2">
+        <v>4</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B218" s="2">
-        <v>1</v>
-      </c>
-      <c r="C218" s="2">
-        <v>4</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" hidden="1">
-      <c r="A219" s="1" t="s">
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>4</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B219" s="2">
-        <v>1</v>
-      </c>
-      <c r="C219" s="2">
-        <v>4</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" hidden="1">
-      <c r="A220" s="1" t="s">
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2">
+        <v>4</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B220" s="2">
-        <v>1</v>
-      </c>
-      <c r="C220" s="2">
-        <v>4</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
-      <c r="A221" s="1" t="s">
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2">
+        <v>4</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B221" s="2">
-        <v>1</v>
-      </c>
-      <c r="C221" s="2">
-        <v>4</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" hidden="1">
-      <c r="A222" s="1" t="s">
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2">
+        <v>4</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B222" s="2">
-        <v>1</v>
-      </c>
-      <c r="C222" s="2">
-        <v>4</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" hidden="1">
-      <c r="A223" s="1" t="s">
+      <c r="B224" s="2">
+        <v>1</v>
+      </c>
+      <c r="C224" s="2">
+        <v>4</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="2">
-        <v>1</v>
-      </c>
-      <c r="C223" s="2">
-        <v>4</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" hidden="1">
-      <c r="A224" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B224" s="2">
-        <v>1</v>
-      </c>
-      <c r="C224" s="2">
-        <v>4</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" hidden="1">
-      <c r="A225" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="B225" s="2">
         <v>1</v>
       </c>
@@ -3751,7 +3763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" hidden="1">
+    <row r="226" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -3761,11 +3773,11 @@
       <c r="C226" s="2">
         <v>5</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" hidden="1">
+      <c r="D226" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>6</v>
       </c>
@@ -3775,11 +3787,11 @@
       <c r="C227" s="2">
         <v>5</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
+      <c r="D227" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>7</v>
       </c>
@@ -3790,10 +3802,10 @@
         <v>5</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
@@ -3804,10 +3816,10 @@
         <v>5</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>9</v>
       </c>
@@ -3818,10 +3830,10 @@
         <v>5</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
@@ -3832,10 +3844,10 @@
         <v>5</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>12</v>
       </c>
@@ -3845,11 +3857,11 @@
       <c r="C232" s="2">
         <v>5</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" hidden="1">
+      <c r="D232" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>14</v>
       </c>
@@ -3860,10 +3872,10 @@
         <v>5</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>15</v>
       </c>
@@ -3873,11 +3885,11 @@
       <c r="C234" s="2">
         <v>5</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" hidden="1">
+      <c r="D234" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>16</v>
       </c>
@@ -3887,11 +3899,11 @@
       <c r="C235" s="2">
         <v>5</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" hidden="1">
+      <c r="D235" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>17</v>
       </c>
@@ -3901,11 +3913,11 @@
       <c r="C236" s="2">
         <v>5</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" hidden="1">
+      <c r="D236" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>18</v>
       </c>
@@ -3916,10 +3928,10 @@
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
@@ -3930,10 +3942,10 @@
         <v>5</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>20</v>
       </c>
@@ -3944,10 +3956,10 @@
         <v>5</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>21</v>
       </c>
@@ -3958,10 +3970,10 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>22</v>
       </c>
@@ -3971,11 +3983,11 @@
       <c r="C241" s="2">
         <v>5</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" hidden="1">
+      <c r="D241" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>23</v>
       </c>
@@ -3986,10 +3998,10 @@
         <v>5</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>24</v>
       </c>
@@ -4000,10 +4012,10 @@
         <v>5</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>25</v>
       </c>
@@ -4013,11 +4025,11 @@
       <c r="C244" s="2">
         <v>5</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" hidden="1">
+      <c r="D244" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>26</v>
       </c>
@@ -4027,11 +4039,11 @@
       <c r="C245" s="2">
         <v>5</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" hidden="1">
+      <c r="D245" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>27</v>
       </c>
@@ -4041,11 +4053,11 @@
       <c r="C246" s="2">
         <v>5</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" hidden="1">
+      <c r="D246" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>28</v>
       </c>
@@ -4055,11 +4067,11 @@
       <c r="C247" s="2">
         <v>5</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" hidden="1">
+      <c r="D247" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>29</v>
       </c>
@@ -4070,10 +4082,10 @@
         <v>5</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>30</v>
       </c>
@@ -4084,10 +4096,10 @@
         <v>5</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>31</v>
       </c>
@@ -4098,10 +4110,10 @@
         <v>5</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>32</v>
       </c>
@@ -4112,10 +4124,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>33</v>
       </c>
@@ -4125,11 +4137,11 @@
       <c r="C252" s="2">
         <v>5</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
+      <c r="D252" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>34</v>
       </c>
@@ -4139,11 +4151,11 @@
       <c r="C253" s="2">
         <v>5</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" hidden="1">
+      <c r="D253" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>35</v>
       </c>
@@ -4153,11 +4165,11 @@
       <c r="C254" s="2">
         <v>5</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" hidden="1">
+      <c r="D254" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>36</v>
       </c>
@@ -4167,11 +4179,11 @@
       <c r="C255" s="2">
         <v>5</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
+      <c r="D255" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>37</v>
       </c>
@@ -4182,10 +4194,10 @@
         <v>5</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" hidden="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>38</v>
       </c>
@@ -4195,11 +4207,11 @@
       <c r="C257" s="2">
         <v>5</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" hidden="1">
+      <c r="D257" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>39</v>
       </c>
@@ -4209,11 +4221,11 @@
       <c r="C258" s="2">
         <v>5</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" hidden="1">
+      <c r="D258" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>40</v>
       </c>
@@ -4223,11 +4235,11 @@
       <c r="C259" s="2">
         <v>5</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" hidden="1">
+      <c r="D259" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>41</v>
       </c>
@@ -4237,11 +4249,11 @@
       <c r="C260" s="2">
         <v>5</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" hidden="1">
+      <c r="D260" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>42</v>
       </c>
@@ -4251,288 +4263,1100 @@
       <c r="C261" s="2">
         <v>5</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B262" s="2">
+        <v>1</v>
+      </c>
+      <c r="C262" s="2">
+        <v>5</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B263" s="2">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2">
+        <v>5</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264" s="2">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B265" s="2">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2">
+        <v>5</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B266" s="2">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2">
+        <v>5</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B267" s="2">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2">
+        <v>5</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B268" s="2">
+        <v>1</v>
+      </c>
+      <c r="C268" s="2">
+        <v>5</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B269" s="2">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2">
+        <v>5</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1</v>
+      </c>
+      <c r="C270" s="2">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
+      <c r="C272" s="2">
+        <v>5</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1</v>
+      </c>
+      <c r="C273" s="2">
+        <v>5</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2">
+        <v>5</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2">
+        <v>5</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B276" s="2">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
+      <c r="C277" s="2">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" s="2">
+        <v>1</v>
+      </c>
+      <c r="C279" s="2">
+        <v>5</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B280" s="2">
+        <v>1</v>
+      </c>
+      <c r="C280" s="2">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" s="2">
+        <v>2</v>
+      </c>
+      <c r="C282" s="2">
+        <v>1</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" s="2">
+        <v>2</v>
+      </c>
+      <c r="C283" s="2">
+        <v>1</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" s="2">
+        <v>2</v>
+      </c>
+      <c r="C284" s="2">
+        <v>1</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="2">
+        <v>2</v>
+      </c>
+      <c r="C285" s="2">
+        <v>1</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286" s="2">
+        <v>2</v>
+      </c>
+      <c r="C286" s="2">
+        <v>1</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" s="2">
+        <v>2</v>
+      </c>
+      <c r="C287" s="2">
+        <v>1</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" s="2">
+        <v>2</v>
+      </c>
+      <c r="C288" s="2">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" s="2">
+        <v>2</v>
+      </c>
+      <c r="C289" s="2">
+        <v>1</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2</v>
+      </c>
+      <c r="C290" s="2">
+        <v>1</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2</v>
+      </c>
+      <c r="C291" s="2">
+        <v>1</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292" s="2">
+        <v>2</v>
+      </c>
+      <c r="C292" s="2">
+        <v>1</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" s="2">
+        <v>2</v>
+      </c>
+      <c r="C293" s="2">
+        <v>1</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B294" s="2">
+        <v>2</v>
+      </c>
+      <c r="C294" s="2">
+        <v>1</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B295" s="2">
+        <v>2</v>
+      </c>
+      <c r="C295" s="2">
+        <v>1</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B296" s="2">
+        <v>2</v>
+      </c>
+      <c r="C296" s="2">
+        <v>1</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B297" s="2">
+        <v>2</v>
+      </c>
+      <c r="C297" s="2">
+        <v>1</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" s="2">
+        <v>2</v>
+      </c>
+      <c r="C298" s="2">
+        <v>1</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B299" s="2">
+        <v>2</v>
+      </c>
+      <c r="C299" s="2">
+        <v>1</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300" s="2">
+        <v>2</v>
+      </c>
+      <c r="C300" s="2">
+        <v>1</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B301" s="2">
+        <v>2</v>
+      </c>
+      <c r="C301" s="2">
+        <v>1</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B302" s="2">
+        <v>2</v>
+      </c>
+      <c r="C302" s="2">
+        <v>1</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" s="2">
+        <v>2</v>
+      </c>
+      <c r="C303" s="2">
+        <v>1</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B304" s="2">
+        <v>2</v>
+      </c>
+      <c r="C304" s="2">
+        <v>1</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305" s="2">
+        <v>2</v>
+      </c>
+      <c r="C305" s="2">
+        <v>1</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B306" s="2">
+        <v>2</v>
+      </c>
+      <c r="C306" s="2">
+        <v>1</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B307" s="2">
+        <v>2</v>
+      </c>
+      <c r="C307" s="2">
+        <v>1</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B308" s="2">
+        <v>2</v>
+      </c>
+      <c r="C308" s="2">
+        <v>1</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B309" s="2">
+        <v>2</v>
+      </c>
+      <c r="C309" s="2">
+        <v>1</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B310" s="2">
+        <v>2</v>
+      </c>
+      <c r="C310" s="2">
+        <v>1</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B311" s="2">
+        <v>2</v>
+      </c>
+      <c r="C311" s="2">
+        <v>1</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B312" s="2">
+        <v>2</v>
+      </c>
+      <c r="C312" s="2">
+        <v>1</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B313" s="2">
+        <v>2</v>
+      </c>
+      <c r="C313" s="2">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314" s="2">
+        <v>2</v>
+      </c>
+      <c r="C314" s="2">
+        <v>1</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B315" s="2">
+        <v>2</v>
+      </c>
+      <c r="C315" s="2">
+        <v>1</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B316" s="2">
+        <v>2</v>
+      </c>
+      <c r="C316" s="2">
+        <v>1</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B317" s="2">
+        <v>2</v>
+      </c>
+      <c r="C317" s="2">
+        <v>1</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B318" s="2">
+        <v>2</v>
+      </c>
+      <c r="C318" s="2">
+        <v>1</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B319" s="2">
+        <v>2</v>
+      </c>
+      <c r="C319" s="2">
+        <v>1</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B320" s="2">
+        <v>2</v>
+      </c>
+      <c r="C320" s="2">
+        <v>1</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B321" s="2">
+        <v>2</v>
+      </c>
+      <c r="C321" s="2">
+        <v>1</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B322" s="2">
+        <v>2</v>
+      </c>
+      <c r="C322" s="2">
+        <v>1</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B323" s="2">
+        <v>2</v>
+      </c>
+      <c r="C323" s="2">
+        <v>1</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B324" s="2">
+        <v>2</v>
+      </c>
+      <c r="C324" s="2">
+        <v>1</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B325" s="2">
+        <v>2</v>
+      </c>
+      <c r="C325" s="2">
+        <v>1</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B326" s="2">
+        <v>2</v>
+      </c>
+      <c r="C326" s="2">
+        <v>1</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B327" s="2">
+        <v>2</v>
+      </c>
+      <c r="C327" s="2">
+        <v>1</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B328" s="2">
+        <v>2</v>
+      </c>
+      <c r="C328" s="2">
+        <v>1</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B329" s="2">
+        <v>2</v>
+      </c>
+      <c r="C329" s="2">
+        <v>1</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2</v>
+      </c>
+      <c r="C331" s="2">
+        <v>1</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B332" s="2">
+        <v>2</v>
+      </c>
+      <c r="C332" s="2">
+        <v>1</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B333" s="2">
+        <v>2</v>
+      </c>
+      <c r="C333" s="2">
+        <v>1</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B334" s="2">
+        <v>2</v>
+      </c>
+      <c r="C334" s="2">
+        <v>1</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2</v>
+      </c>
+      <c r="C335" s="2">
+        <v>1</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B336" s="2">
+        <v>2</v>
+      </c>
+      <c r="C336" s="2">
+        <v>1</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B337" s="2">
+        <v>2</v>
+      </c>
+      <c r="C337" s="2">
+        <v>1</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
-      <c r="A262" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B262" s="2">
-        <v>1</v>
-      </c>
-      <c r="C262" s="2">
-        <v>5</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
-      <c r="A263" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B263" s="2">
-        <v>1</v>
-      </c>
-      <c r="C263" s="2">
-        <v>5</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
-      <c r="A264" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B264" s="2">
-        <v>1</v>
-      </c>
-      <c r="C264" s="2">
-        <v>5</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
-      <c r="A265" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B265" s="2">
-        <v>1</v>
-      </c>
-      <c r="C265" s="2">
-        <v>5</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
-      <c r="A266" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B266" s="2">
-        <v>1</v>
-      </c>
-      <c r="C266" s="2">
-        <v>5</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" hidden="1">
-      <c r="A267" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B267" s="2">
-        <v>1</v>
-      </c>
-      <c r="C267" s="2">
-        <v>5</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" hidden="1">
-      <c r="A268" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B268" s="2">
-        <v>1</v>
-      </c>
-      <c r="C268" s="2">
-        <v>5</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" hidden="1">
-      <c r="A269" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B269" s="2">
-        <v>1</v>
-      </c>
-      <c r="C269" s="2">
-        <v>5</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" hidden="1">
-      <c r="A270" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B270" s="2">
-        <v>1</v>
-      </c>
-      <c r="C270" s="2">
-        <v>5</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" hidden="1">
-      <c r="A271" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B271" s="2">
-        <v>1</v>
-      </c>
-      <c r="C271" s="2">
-        <v>5</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" hidden="1">
-      <c r="A272" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B272" s="2">
-        <v>1</v>
-      </c>
-      <c r="C272" s="2">
-        <v>5</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" hidden="1">
-      <c r="A273" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B273" s="2">
-        <v>1</v>
-      </c>
-      <c r="C273" s="2">
-        <v>5</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" hidden="1">
-      <c r="A274" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B274" s="2">
-        <v>1</v>
-      </c>
-      <c r="C274" s="2">
-        <v>5</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" hidden="1">
-      <c r="A275" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B275" s="2">
-        <v>1</v>
-      </c>
-      <c r="C275" s="2">
-        <v>5</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" hidden="1">
-      <c r="A276" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B276" s="2">
-        <v>1</v>
-      </c>
-      <c r="C276" s="2">
-        <v>5</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" hidden="1">
-      <c r="A277" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B277" s="2">
-        <v>1</v>
-      </c>
-      <c r="C277" s="2">
-        <v>5</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" hidden="1">
-      <c r="A278" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B278" s="2">
-        <v>1</v>
-      </c>
-      <c r="C278" s="2">
-        <v>5</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" hidden="1">
-      <c r="A279" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B279" s="2">
-        <v>1</v>
-      </c>
-      <c r="C279" s="2">
-        <v>5</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" hidden="1">
-      <c r="A280" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B280" s="2">
-        <v>1</v>
-      </c>
-      <c r="C280" s="2">
-        <v>5</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" hidden="1">
-      <c r="A281" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B281" s="2">
-        <v>1</v>
-      </c>
-      <c r="C281" s="2">
-        <v>5</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>64</v>
+      <c r="B338" s="4">
+        <v>2</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B339" s="4">
+        <v>2</v>
+      </c>
+      <c r="C339" s="2">
+        <v>1</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D6522E-69C0-420C-A297-EEB3DAE9F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C63793-9270-463E-AE51-260A5D69BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="66">
   <si>
     <t>nombre</t>
   </si>
@@ -219,10 +219,10 @@
     <t>Fam. Salas Isuiza, Marlene</t>
   </si>
   <si>
-    <t>Aurora Qquenta</t>
+    <t>Fam. Vila Oquenta Franklin</t>
   </si>
   <si>
-    <t>Franklin vila</t>
+    <t>Fam. Vila Oquenta Aurora</t>
   </si>
 </sst>
 </file>
@@ -299,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D339" totalsRowShown="0">
-  <autoFilter ref="A1:D339" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D571" totalsRowShown="0">
+  <autoFilter ref="A1:D571" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nombre"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ciclo"/>
@@ -599,10 +599,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D339"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="D339" sqref="D339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5347,16 +5347,3264 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2</v>
+      </c>
+      <c r="C339" s="4">
+        <v>2</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="2">
+        <v>2</v>
+      </c>
+      <c r="C340" s="4">
+        <v>2</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2</v>
+      </c>
+      <c r="C341" s="4">
+        <v>2</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2</v>
+      </c>
+      <c r="C342" s="4">
+        <v>2</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2</v>
+      </c>
+      <c r="C343" s="4">
+        <v>2</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2</v>
+      </c>
+      <c r="C344" s="4">
+        <v>2</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2</v>
+      </c>
+      <c r="C345" s="4">
+        <v>2</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2</v>
+      </c>
+      <c r="C346" s="4">
+        <v>2</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+      <c r="C347" s="4">
+        <v>2</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2</v>
+      </c>
+      <c r="C348" s="4">
+        <v>2</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2</v>
+      </c>
+      <c r="C349" s="4">
+        <v>2</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2</v>
+      </c>
+      <c r="C350" s="4">
+        <v>2</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2</v>
+      </c>
+      <c r="C351" s="4">
+        <v>2</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2</v>
+      </c>
+      <c r="C352" s="4">
+        <v>2</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2</v>
+      </c>
+      <c r="C353" s="4">
+        <v>2</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2</v>
+      </c>
+      <c r="C354" s="4">
+        <v>2</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" s="4">
+        <v>2</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2</v>
+      </c>
+      <c r="C356" s="4">
+        <v>2</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2</v>
+      </c>
+      <c r="C357" s="4">
+        <v>2</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2</v>
+      </c>
+      <c r="C358" s="4">
+        <v>2</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2</v>
+      </c>
+      <c r="C359" s="4">
+        <v>2</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2</v>
+      </c>
+      <c r="C360" s="4">
+        <v>2</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" s="2">
+        <v>2</v>
+      </c>
+      <c r="C361" s="4">
+        <v>2</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2</v>
+      </c>
+      <c r="C362" s="4">
+        <v>2</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2</v>
+      </c>
+      <c r="C363" s="4">
+        <v>2</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="2">
+        <v>2</v>
+      </c>
+      <c r="C364" s="4">
+        <v>2</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2</v>
+      </c>
+      <c r="C365" s="4">
+        <v>2</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B366" s="2">
+        <v>2</v>
+      </c>
+      <c r="C366" s="4">
+        <v>2</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2</v>
+      </c>
+      <c r="C367" s="4">
+        <v>2</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B368" s="2">
+        <v>2</v>
+      </c>
+      <c r="C368" s="4">
+        <v>2</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B369" s="2">
+        <v>2</v>
+      </c>
+      <c r="C369" s="4">
+        <v>2</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2</v>
+      </c>
+      <c r="C370" s="4">
+        <v>2</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2</v>
+      </c>
+      <c r="C371" s="4">
+        <v>2</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2</v>
+      </c>
+      <c r="C372" s="4">
+        <v>2</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B373" s="2">
+        <v>2</v>
+      </c>
+      <c r="C373" s="4">
+        <v>2</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B374" s="2">
+        <v>2</v>
+      </c>
+      <c r="C374" s="4">
+        <v>2</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2</v>
+      </c>
+      <c r="C375" s="4">
+        <v>2</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B376" s="2">
+        <v>2</v>
+      </c>
+      <c r="C376" s="4">
+        <v>2</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2</v>
+      </c>
+      <c r="C377" s="4">
+        <v>2</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B378" s="2">
+        <v>2</v>
+      </c>
+      <c r="C378" s="4">
+        <v>2</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2</v>
+      </c>
+      <c r="C379" s="4">
+        <v>2</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B380" s="2">
+        <v>2</v>
+      </c>
+      <c r="C380" s="4">
+        <v>2</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B381" s="2">
+        <v>2</v>
+      </c>
+      <c r="C381" s="4">
+        <v>2</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B382" s="2">
+        <v>2</v>
+      </c>
+      <c r="C382" s="4">
+        <v>2</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B383" s="2">
+        <v>2</v>
+      </c>
+      <c r="C383" s="4">
+        <v>2</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B384" s="2">
+        <v>2</v>
+      </c>
+      <c r="C384" s="4">
+        <v>2</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B385" s="2">
+        <v>2</v>
+      </c>
+      <c r="C385" s="4">
+        <v>2</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B386" s="2">
+        <v>2</v>
+      </c>
+      <c r="C386" s="4">
+        <v>2</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2</v>
+      </c>
+      <c r="C387" s="4">
+        <v>2</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B388" s="2">
+        <v>2</v>
+      </c>
+      <c r="C388" s="4">
+        <v>2</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B389" s="2">
+        <v>2</v>
+      </c>
+      <c r="C389" s="4">
+        <v>2</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B390" s="2">
+        <v>2</v>
+      </c>
+      <c r="C390" s="4">
+        <v>2</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B391" s="2">
+        <v>2</v>
+      </c>
+      <c r="C391" s="4">
+        <v>2</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B392" s="2">
+        <v>2</v>
+      </c>
+      <c r="C392" s="4">
+        <v>2</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B393" s="2">
+        <v>2</v>
+      </c>
+      <c r="C393" s="4">
+        <v>2</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B394" s="2">
+        <v>2</v>
+      </c>
+      <c r="C394" s="4">
+        <v>2</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B395" s="4">
+        <v>2</v>
+      </c>
+      <c r="C395" s="4">
+        <v>2</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B396" s="2">
+        <v>2</v>
+      </c>
+      <c r="C396" s="4">
+        <v>3</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="2">
+        <v>2</v>
+      </c>
+      <c r="C397" s="4">
+        <v>3</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B398" s="2">
+        <v>2</v>
+      </c>
+      <c r="C398" s="4">
+        <v>3</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2</v>
+      </c>
+      <c r="C399" s="4">
+        <v>3</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2</v>
+      </c>
+      <c r="C400" s="4">
+        <v>3</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2</v>
+      </c>
+      <c r="C401" s="4">
+        <v>3</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B402" s="2">
+        <v>2</v>
+      </c>
+      <c r="C402" s="4">
+        <v>3</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2</v>
+      </c>
+      <c r="C403" s="4">
+        <v>3</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B404" s="2">
+        <v>2</v>
+      </c>
+      <c r="C404" s="4">
+        <v>3</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B405" s="2">
+        <v>2</v>
+      </c>
+      <c r="C405" s="4">
+        <v>3</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2</v>
+      </c>
+      <c r="C406" s="4">
+        <v>3</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2</v>
+      </c>
+      <c r="C407" s="4">
+        <v>3</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B408" s="2">
+        <v>2</v>
+      </c>
+      <c r="C408" s="4">
+        <v>3</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B409" s="2">
+        <v>2</v>
+      </c>
+      <c r="C409" s="4">
+        <v>3</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B410" s="2">
+        <v>2</v>
+      </c>
+      <c r="C410" s="4">
+        <v>3</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B411" s="2">
+        <v>2</v>
+      </c>
+      <c r="C411" s="4">
+        <v>3</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" s="2">
+        <v>2</v>
+      </c>
+      <c r="C412" s="4">
+        <v>3</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B413" s="2">
+        <v>2</v>
+      </c>
+      <c r="C413" s="4">
+        <v>3</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B414" s="2">
+        <v>2</v>
+      </c>
+      <c r="C414" s="4">
+        <v>3</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B415" s="2">
+        <v>2</v>
+      </c>
+      <c r="C415" s="4">
+        <v>3</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2</v>
+      </c>
+      <c r="C416" s="4">
+        <v>3</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B417" s="2">
+        <v>2</v>
+      </c>
+      <c r="C417" s="4">
+        <v>3</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B418" s="2">
+        <v>2</v>
+      </c>
+      <c r="C418" s="4">
+        <v>3</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2</v>
+      </c>
+      <c r="C419" s="4">
+        <v>3</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B420" s="2">
+        <v>2</v>
+      </c>
+      <c r="C420" s="4">
+        <v>3</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" s="2">
+        <v>2</v>
+      </c>
+      <c r="C421" s="4">
+        <v>3</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B422" s="2">
+        <v>2</v>
+      </c>
+      <c r="C422" s="4">
+        <v>3</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B423" s="2">
+        <v>2</v>
+      </c>
+      <c r="C423" s="4">
+        <v>3</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" s="2">
+        <v>2</v>
+      </c>
+      <c r="C424" s="4">
+        <v>3</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B425" s="2">
+        <v>2</v>
+      </c>
+      <c r="C425" s="4">
+        <v>3</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B426" s="2">
+        <v>2</v>
+      </c>
+      <c r="C426" s="4">
+        <v>3</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B427" s="2">
+        <v>2</v>
+      </c>
+      <c r="C427" s="4">
+        <v>3</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B428" s="2">
+        <v>2</v>
+      </c>
+      <c r="C428" s="4">
+        <v>3</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B429" s="2">
+        <v>2</v>
+      </c>
+      <c r="C429" s="4">
+        <v>3</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B430" s="2">
+        <v>2</v>
+      </c>
+      <c r="C430" s="4">
+        <v>3</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B431" s="2">
+        <v>2</v>
+      </c>
+      <c r="C431" s="4">
+        <v>3</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B432" s="2">
+        <v>2</v>
+      </c>
+      <c r="C432" s="4">
+        <v>3</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B433" s="2">
+        <v>2</v>
+      </c>
+      <c r="C433" s="4">
+        <v>3</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B434" s="2">
+        <v>2</v>
+      </c>
+      <c r="C434" s="4">
+        <v>3</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B435" s="2">
+        <v>2</v>
+      </c>
+      <c r="C435" s="4">
+        <v>3</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B436" s="2">
+        <v>2</v>
+      </c>
+      <c r="C436" s="4">
+        <v>3</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B437" s="2">
+        <v>2</v>
+      </c>
+      <c r="C437" s="4">
+        <v>3</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B438" s="2">
+        <v>2</v>
+      </c>
+      <c r="C438" s="4">
+        <v>3</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B439" s="2">
+        <v>2</v>
+      </c>
+      <c r="C439" s="4">
+        <v>3</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B440" s="2">
+        <v>2</v>
+      </c>
+      <c r="C440" s="4">
+        <v>3</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B441" s="2">
+        <v>2</v>
+      </c>
+      <c r="C441" s="4">
+        <v>3</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B442" s="2">
+        <v>2</v>
+      </c>
+      <c r="C442" s="4">
+        <v>3</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B443" s="2">
+        <v>2</v>
+      </c>
+      <c r="C443" s="4">
+        <v>3</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B444" s="2">
+        <v>2</v>
+      </c>
+      <c r="C444" s="4">
+        <v>3</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B445" s="2">
+        <v>2</v>
+      </c>
+      <c r="C445" s="4">
+        <v>3</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B446" s="2">
+        <v>2</v>
+      </c>
+      <c r="C446" s="4">
+        <v>3</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B447" s="2">
+        <v>2</v>
+      </c>
+      <c r="C447" s="4">
+        <v>3</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B448" s="2">
+        <v>2</v>
+      </c>
+      <c r="C448" s="4">
+        <v>3</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B449" s="2">
+        <v>2</v>
+      </c>
+      <c r="C449" s="4">
+        <v>3</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B450" s="2">
+        <v>2</v>
+      </c>
+      <c r="C450" s="4">
+        <v>3</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B451" s="2">
+        <v>2</v>
+      </c>
+      <c r="C451" s="4">
+        <v>3</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B452" s="4">
+        <v>2</v>
+      </c>
+      <c r="C452" s="4">
+        <v>3</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453" s="2">
+        <v>2</v>
+      </c>
+      <c r="C453" s="4">
+        <v>4</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B454" s="2">
+        <v>2</v>
+      </c>
+      <c r="C454" s="4">
+        <v>4</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455" s="2">
+        <v>2</v>
+      </c>
+      <c r="C455" s="4">
+        <v>4</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B456" s="2">
+        <v>2</v>
+      </c>
+      <c r="C456" s="4">
+        <v>4</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B457" s="2">
+        <v>2</v>
+      </c>
+      <c r="C457" s="4">
+        <v>4</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B458" s="2">
+        <v>2</v>
+      </c>
+      <c r="C458" s="4">
+        <v>4</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459" s="2">
+        <v>2</v>
+      </c>
+      <c r="C459" s="4">
+        <v>4</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B460" s="2">
+        <v>2</v>
+      </c>
+      <c r="C460" s="4">
+        <v>4</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B461" s="2">
+        <v>2</v>
+      </c>
+      <c r="C461" s="4">
+        <v>4</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B462" s="2">
+        <v>2</v>
+      </c>
+      <c r="C462" s="4">
+        <v>4</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B463" s="2">
+        <v>2</v>
+      </c>
+      <c r="C463" s="4">
+        <v>4</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2">
+        <v>2</v>
+      </c>
+      <c r="C464" s="4">
+        <v>4</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B465" s="2">
+        <v>2</v>
+      </c>
+      <c r="C465" s="4">
+        <v>4</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B466" s="2">
+        <v>2</v>
+      </c>
+      <c r="C466" s="4">
+        <v>4</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B467" s="2">
+        <v>2</v>
+      </c>
+      <c r="C467" s="4">
+        <v>4</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468" s="2">
+        <v>2</v>
+      </c>
+      <c r="C468" s="4">
+        <v>4</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B469" s="2">
+        <v>2</v>
+      </c>
+      <c r="C469" s="4">
+        <v>4</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B470" s="2">
+        <v>2</v>
+      </c>
+      <c r="C470" s="4">
+        <v>4</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B471" s="2">
+        <v>2</v>
+      </c>
+      <c r="C471" s="4">
+        <v>4</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B472" s="2">
+        <v>2</v>
+      </c>
+      <c r="C472" s="4">
+        <v>4</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B473" s="2">
+        <v>2</v>
+      </c>
+      <c r="C473" s="4">
+        <v>4</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B474" s="2">
+        <v>2</v>
+      </c>
+      <c r="C474" s="4">
+        <v>4</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B475" s="2">
+        <v>2</v>
+      </c>
+      <c r="C475" s="4">
+        <v>4</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B476" s="2">
+        <v>2</v>
+      </c>
+      <c r="C476" s="4">
+        <v>4</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B477" s="2">
+        <v>2</v>
+      </c>
+      <c r="C477" s="4">
+        <v>4</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B478" s="2">
+        <v>2</v>
+      </c>
+      <c r="C478" s="4">
+        <v>4</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B479" s="2">
+        <v>2</v>
+      </c>
+      <c r="C479" s="4">
+        <v>4</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B480" s="2">
+        <v>2</v>
+      </c>
+      <c r="C480" s="4">
+        <v>4</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B481" s="2">
+        <v>2</v>
+      </c>
+      <c r="C481" s="4">
+        <v>4</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B482" s="2">
+        <v>2</v>
+      </c>
+      <c r="C482" s="4">
+        <v>4</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B483" s="2">
+        <v>2</v>
+      </c>
+      <c r="C483" s="4">
+        <v>4</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B484" s="2">
+        <v>2</v>
+      </c>
+      <c r="C484" s="4">
+        <v>4</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B485" s="2">
+        <v>2</v>
+      </c>
+      <c r="C485" s="4">
+        <v>4</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B486" s="2">
+        <v>2</v>
+      </c>
+      <c r="C486" s="4">
+        <v>4</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B487" s="2">
+        <v>2</v>
+      </c>
+      <c r="C487" s="4">
+        <v>4</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B488" s="2">
+        <v>2</v>
+      </c>
+      <c r="C488" s="4">
+        <v>4</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B489" s="2">
+        <v>2</v>
+      </c>
+      <c r="C489" s="4">
+        <v>4</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B490" s="2">
+        <v>2</v>
+      </c>
+      <c r="C490" s="4">
+        <v>4</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B491" s="2">
+        <v>2</v>
+      </c>
+      <c r="C491" s="4">
+        <v>4</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B492" s="2">
+        <v>2</v>
+      </c>
+      <c r="C492" s="4">
+        <v>4</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B493" s="2">
+        <v>2</v>
+      </c>
+      <c r="C493" s="4">
+        <v>4</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B494" s="2">
+        <v>2</v>
+      </c>
+      <c r="C494" s="4">
+        <v>4</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B495" s="2">
+        <v>2</v>
+      </c>
+      <c r="C495" s="4">
+        <v>4</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B496" s="2">
+        <v>2</v>
+      </c>
+      <c r="C496" s="4">
+        <v>4</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B497" s="2">
+        <v>2</v>
+      </c>
+      <c r="C497" s="4">
+        <v>4</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B498" s="2">
+        <v>2</v>
+      </c>
+      <c r="C498" s="4">
+        <v>4</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B499" s="2">
+        <v>2</v>
+      </c>
+      <c r="C499" s="4">
+        <v>4</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B500" s="2">
+        <v>2</v>
+      </c>
+      <c r="C500" s="4">
+        <v>4</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B501" s="2">
+        <v>2</v>
+      </c>
+      <c r="C501" s="4">
+        <v>4</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B502" s="2">
+        <v>2</v>
+      </c>
+      <c r="C502" s="4">
+        <v>4</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B503" s="2">
+        <v>2</v>
+      </c>
+      <c r="C503" s="4">
+        <v>4</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B504" s="2">
+        <v>2</v>
+      </c>
+      <c r="C504" s="4">
+        <v>4</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B505" s="2">
+        <v>2</v>
+      </c>
+      <c r="C505" s="4">
+        <v>4</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B506" s="2">
+        <v>2</v>
+      </c>
+      <c r="C506" s="4">
+        <v>4</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B507" s="2">
+        <v>2</v>
+      </c>
+      <c r="C507" s="4">
+        <v>4</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B508" s="2">
+        <v>2</v>
+      </c>
+      <c r="C508" s="4">
+        <v>4</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B509" s="4">
+        <v>2</v>
+      </c>
+      <c r="C509" s="4">
+        <v>4</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B510" s="2">
+        <v>2</v>
+      </c>
+      <c r="C510" s="4">
+        <v>5</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B511" s="2">
+        <v>2</v>
+      </c>
+      <c r="C511" s="4">
+        <v>5</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B512" s="2">
+        <v>2</v>
+      </c>
+      <c r="C512" s="4">
+        <v>5</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B513" s="2">
+        <v>2</v>
+      </c>
+      <c r="C513" s="4">
+        <v>5</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" s="2">
+        <v>2</v>
+      </c>
+      <c r="C514" s="4">
+        <v>5</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B515" s="2">
+        <v>2</v>
+      </c>
+      <c r="C515" s="4">
+        <v>5</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B516" s="2">
+        <v>2</v>
+      </c>
+      <c r="C516" s="4">
+        <v>5</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B517" s="2">
+        <v>2</v>
+      </c>
+      <c r="C517" s="4">
+        <v>5</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B518" s="2">
+        <v>2</v>
+      </c>
+      <c r="C518" s="4">
+        <v>5</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B519" s="2">
+        <v>2</v>
+      </c>
+      <c r="C519" s="4">
+        <v>5</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B520" s="2">
+        <v>2</v>
+      </c>
+      <c r="C520" s="4">
+        <v>5</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B521" s="2">
+        <v>2</v>
+      </c>
+      <c r="C521" s="4">
+        <v>5</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B522" s="2">
+        <v>2</v>
+      </c>
+      <c r="C522" s="4">
+        <v>5</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B523" s="2">
+        <v>2</v>
+      </c>
+      <c r="C523" s="4">
+        <v>5</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B524" s="2">
+        <v>2</v>
+      </c>
+      <c r="C524" s="4">
+        <v>5</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B525" s="2">
+        <v>2</v>
+      </c>
+      <c r="C525" s="4">
+        <v>5</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B526" s="2">
+        <v>2</v>
+      </c>
+      <c r="C526" s="4">
+        <v>5</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B527" s="2">
+        <v>2</v>
+      </c>
+      <c r="C527" s="4">
+        <v>5</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B528" s="2">
+        <v>2</v>
+      </c>
+      <c r="C528" s="4">
+        <v>5</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B529" s="2">
+        <v>2</v>
+      </c>
+      <c r="C529" s="4">
+        <v>5</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B530" s="2">
+        <v>2</v>
+      </c>
+      <c r="C530" s="4">
+        <v>5</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B531" s="2">
+        <v>2</v>
+      </c>
+      <c r="C531" s="4">
+        <v>5</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B532" s="2">
+        <v>2</v>
+      </c>
+      <c r="C532" s="4">
+        <v>5</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B533" s="2">
+        <v>2</v>
+      </c>
+      <c r="C533" s="4">
+        <v>5</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B534" s="2">
+        <v>2</v>
+      </c>
+      <c r="C534" s="4">
+        <v>5</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B535" s="2">
+        <v>2</v>
+      </c>
+      <c r="C535" s="4">
+        <v>5</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B536" s="2">
+        <v>2</v>
+      </c>
+      <c r="C536" s="4">
+        <v>5</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B537" s="2">
+        <v>2</v>
+      </c>
+      <c r="C537" s="4">
+        <v>5</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B538" s="2">
+        <v>2</v>
+      </c>
+      <c r="C538" s="4">
+        <v>5</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B539" s="2">
+        <v>2</v>
+      </c>
+      <c r="C539" s="4">
+        <v>5</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B540" s="2">
+        <v>2</v>
+      </c>
+      <c r="C540" s="4">
+        <v>5</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B541" s="2">
+        <v>2</v>
+      </c>
+      <c r="C541" s="4">
+        <v>5</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B542" s="2">
+        <v>2</v>
+      </c>
+      <c r="C542" s="4">
+        <v>5</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B543" s="2">
+        <v>2</v>
+      </c>
+      <c r="C543" s="4">
+        <v>5</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B544" s="2">
+        <v>2</v>
+      </c>
+      <c r="C544" s="4">
+        <v>5</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B545" s="2">
+        <v>2</v>
+      </c>
+      <c r="C545" s="4">
+        <v>5</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B546" s="2">
+        <v>2</v>
+      </c>
+      <c r="C546" s="4">
+        <v>5</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B547" s="2">
+        <v>2</v>
+      </c>
+      <c r="C547" s="4">
+        <v>5</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B548" s="2">
+        <v>2</v>
+      </c>
+      <c r="C548" s="4">
+        <v>5</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B549" s="2">
+        <v>2</v>
+      </c>
+      <c r="C549" s="4">
+        <v>5</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B550" s="2">
+        <v>2</v>
+      </c>
+      <c r="C550" s="4">
+        <v>5</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B551" s="2">
+        <v>2</v>
+      </c>
+      <c r="C551" s="4">
+        <v>5</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B552" s="2">
+        <v>2</v>
+      </c>
+      <c r="C552" s="4">
+        <v>5</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B553" s="2">
+        <v>2</v>
+      </c>
+      <c r="C553" s="4">
+        <v>5</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B554" s="2">
+        <v>2</v>
+      </c>
+      <c r="C554" s="4">
+        <v>5</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B555" s="2">
+        <v>2</v>
+      </c>
+      <c r="C555" s="4">
+        <v>5</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B556" s="2">
+        <v>2</v>
+      </c>
+      <c r="C556" s="4">
+        <v>5</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B557" s="2">
+        <v>2</v>
+      </c>
+      <c r="C557" s="4">
+        <v>5</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B558" s="2">
+        <v>2</v>
+      </c>
+      <c r="C558" s="4">
+        <v>5</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B559" s="2">
+        <v>2</v>
+      </c>
+      <c r="C559" s="4">
+        <v>5</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B560" s="2">
+        <v>2</v>
+      </c>
+      <c r="C560" s="4">
+        <v>5</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B561" s="2">
+        <v>2</v>
+      </c>
+      <c r="C561" s="4">
+        <v>5</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B562" s="2">
+        <v>2</v>
+      </c>
+      <c r="C562" s="4">
+        <v>5</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B563" s="2">
+        <v>2</v>
+      </c>
+      <c r="C563" s="4">
+        <v>5</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B564" s="2">
+        <v>2</v>
+      </c>
+      <c r="C564" s="4">
+        <v>5</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B565" s="2">
+        <v>2</v>
+      </c>
+      <c r="C565" s="4">
+        <v>5</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B566" s="4">
+        <v>2</v>
+      </c>
+      <c r="C566" s="4">
+        <v>5</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B339" s="4">
-        <v>2</v>
-      </c>
-      <c r="C339" s="2">
-        <v>1</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>5</v>
+      <c r="B567" s="4">
+        <v>2</v>
+      </c>
+      <c r="C567" s="4">
+        <v>1</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B568" s="4">
+        <v>2</v>
+      </c>
+      <c r="C568" s="4">
+        <v>2</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B569" s="4">
+        <v>2</v>
+      </c>
+      <c r="C569" s="4">
+        <v>3</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B570" s="4">
+        <v>2</v>
+      </c>
+      <c r="C570" s="4">
+        <v>4</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B571" s="4">
+        <v>2</v>
+      </c>
+      <c r="C571" s="4">
+        <v>5</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C63793-9270-463E-AE51-260A5D69BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7672DBB-E167-48BF-B26E-C460A6EA99EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D350" sqref="D350"/>
+      <selection activeCell="D578" sqref="D578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6154,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -6168,7 +6168,7 @@
         <v>3</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -6238,7 +6238,7 @@
         <v>3</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -6294,7 +6294,7 @@
         <v>3</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -6308,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -6336,7 +6336,7 @@
         <v>3</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -6420,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -6504,7 +6504,7 @@
         <v>3</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -6518,7 +6518,7 @@
         <v>3</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -6532,7 +6532,7 @@
         <v>3</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -6546,7 +6546,7 @@
         <v>3</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -6560,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -6574,7 +6574,7 @@
         <v>3</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -6588,7 +6588,7 @@
         <v>3</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -6602,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -6616,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -6630,7 +6630,7 @@
         <v>3</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -6644,7 +6644,7 @@
         <v>3</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -6658,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -6672,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -6714,7 +6714,7 @@
         <v>3</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -6728,7 +6728,7 @@
         <v>3</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -6742,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -6756,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -6798,7 +6798,7 @@
         <v>3</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -6812,7 +6812,7 @@
         <v>3</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -6840,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -6938,7 +6938,7 @@
         <v>3</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">

--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7672DBB-E167-48BF-B26E-C460A6EA99EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57235756-78EA-4939-A1B5-48B8F297BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D578" sqref="D578"/>
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2318,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2332,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3102,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5356,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -5412,7 +5412,7 @@
         <v>2</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -5426,7 +5426,7 @@
         <v>2</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -5454,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -5468,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -5482,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -5524,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -5580,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -5594,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -5832,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -5846,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -5902,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -5916,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -5972,7 +5972,7 @@
         <v>2</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -6056,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -6070,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -6084,7 +6084,7 @@
         <v>2</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -6098,7 +6098,7 @@
         <v>2</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -6182,7 +6182,7 @@
         <v>3</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -6196,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -6210,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -6224,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -6252,7 +6252,7 @@
         <v>3</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -6266,7 +6266,7 @@
         <v>3</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -6280,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -6322,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -6350,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -6378,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -6392,7 +6392,7 @@
         <v>3</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -6406,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -6434,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -6448,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -6462,7 +6462,7 @@
         <v>3</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -6476,7 +6476,7 @@
         <v>3</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -6686,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -6700,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -6770,7 +6770,7 @@
         <v>3</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -6784,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -6854,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -6868,7 +6868,7 @@
         <v>3</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -6882,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -6896,7 +6896,7 @@
         <v>3</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -6910,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -6924,7 +6924,7 @@
         <v>3</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -6952,7 +6952,7 @@
         <v>4</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -6966,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -6980,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -6994,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -7008,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -7022,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -7036,7 +7036,7 @@
         <v>4</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -7050,7 +7050,7 @@
         <v>4</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -7064,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -7078,7 +7078,7 @@
         <v>4</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -7092,7 +7092,7 @@
         <v>4</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -7106,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -7120,7 +7120,7 @@
         <v>4</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -7134,7 +7134,7 @@
         <v>4</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -7148,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -7162,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -7176,7 +7176,7 @@
         <v>4</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -7190,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -7218,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -7232,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -7246,7 +7246,7 @@
         <v>4</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -7260,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -7274,7 +7274,7 @@
         <v>4</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -7288,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -7302,7 +7302,7 @@
         <v>4</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -7316,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -7330,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -7344,7 +7344,7 @@
         <v>4</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -7358,7 +7358,7 @@
         <v>4</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -7372,7 +7372,7 @@
         <v>4</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -7386,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -7400,7 +7400,7 @@
         <v>4</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -7414,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -7428,7 +7428,7 @@
         <v>4</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -7442,7 +7442,7 @@
         <v>4</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -7456,7 +7456,7 @@
         <v>4</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -7470,7 +7470,7 @@
         <v>4</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -7484,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -7498,7 +7498,7 @@
         <v>4</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -7512,7 +7512,7 @@
         <v>4</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -7526,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -7540,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -7554,7 +7554,7 @@
         <v>4</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -7568,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -7582,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -7596,7 +7596,7 @@
         <v>4</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -7610,7 +7610,7 @@
         <v>4</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -7624,7 +7624,7 @@
         <v>4</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -7638,7 +7638,7 @@
         <v>4</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -7652,7 +7652,7 @@
         <v>4</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -7666,7 +7666,7 @@
         <v>4</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -7680,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -7694,7 +7694,7 @@
         <v>4</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -7708,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -7722,7 +7722,7 @@
         <v>4</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -7736,7 +7736,7 @@
         <v>4</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -8576,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -8590,7 +8590,7 @@
         <v>4</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">

--- a/DATA/Asistencias.xlsx
+++ b/DATA/Asistencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdelc\Desktop\Asistencia\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57235756-78EA-4939-A1B5-48B8F297BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFC0DC-A56D-4398-BA48-0942171E3181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D291" sqref="D291"/>
+      <selection activeCell="D287" sqref="D287:D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -4628,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -5174,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
